--- a/input/Exp.Individs.xlsx
+++ b/input/Exp.Individs.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/springfreeze/input/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27430"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12620" yWindow="3880" windowWidth="28800" windowHeight="17600" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,20 +13,20 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
   </definedNames>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="60">
   <si>
     <t>Species</t>
   </si>
@@ -139,13 +134,85 @@
   </si>
   <si>
     <t>ACEPEN05_WM</t>
+  </si>
+  <si>
+    <t>ALNINC01_HF</t>
+  </si>
+  <si>
+    <t>ALNINC07_SH</t>
+  </si>
+  <si>
+    <t>ALNINC06_HF</t>
+  </si>
+  <si>
+    <t>ALNINC05_SH</t>
+  </si>
+  <si>
+    <t>ALNINC09_HF</t>
+  </si>
+  <si>
+    <t>ALNINC08_HF</t>
+  </si>
+  <si>
+    <t>ALNINC02_HF</t>
+  </si>
+  <si>
+    <t>ALNINC05_HF</t>
+  </si>
+  <si>
+    <t>ACEPEN12_HF</t>
+  </si>
+  <si>
+    <t>BETPOP05_HF</t>
+  </si>
+  <si>
+    <t>BETPOP01_HF</t>
+  </si>
+  <si>
+    <t>BETPOP04_HF</t>
+  </si>
+  <si>
+    <t>BETPOP03_HF</t>
+  </si>
+  <si>
+    <t>VIBCAS01_SH</t>
+  </si>
+  <si>
+    <t>VIBCAS05_SH</t>
+  </si>
+  <si>
+    <t>VIBCAS10_GR</t>
+  </si>
+  <si>
+    <t>VIBCAS07_WM</t>
+  </si>
+  <si>
+    <t>VIBCAS03_GR</t>
+  </si>
+  <si>
+    <t>VIBCAS08_WM</t>
+  </si>
+  <si>
+    <t>VIBCAS09_SH</t>
+  </si>
+  <si>
+    <t>VIBCAS12_GR</t>
+  </si>
+  <si>
+    <t>CORCOR06_WM</t>
+  </si>
+  <si>
+    <t>CORCOR05_WM</t>
+  </si>
+  <si>
+    <t>UNK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +222,22 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -177,14 +260,142 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="65">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -240,7 +451,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -275,7 +486,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -452,7 +663,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -469,9 +680,9 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -512,7 +723,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -547,7 +758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -582,7 +793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -620,7 +831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -655,7 +866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -690,7 +901,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -725,7 +936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -763,7 +974,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -792,7 +1003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -821,7 +1032,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -850,7 +1061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -879,7 +1090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -905,7 +1116,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -934,7 +1145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -963,7 +1174,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -992,7 +1203,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +1232,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1047,7 +1258,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1287,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1105,7 +1316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1116,7 +1327,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1130,7 +1341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1141,7 +1352,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1155,7 +1366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1169,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1183,7 +1394,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1194,7 +1405,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1208,7 +1419,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1222,7 +1433,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1236,7 +1447,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1261,29 +1472,34 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24:C61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1306,7 +1522,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1326,7 +1542,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1346,7 +1562,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1366,7 +1582,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1386,7 +1602,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1406,7 +1622,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1426,7 +1642,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1446,7 +1662,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1466,7 +1682,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1486,7 +1702,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1506,7 +1722,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1526,7 +1742,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1546,7 +1762,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1566,7 +1782,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1586,7 +1802,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1606,7 +1822,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1626,7 +1842,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1646,7 +1862,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1666,7 +1882,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1686,7 +1902,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1706,7 +1922,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1723,11 +1939,1356 @@
         <v>42454</v>
       </c>
       <c r="F22" s="1">
-        <v>42661</v>
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E23" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F23" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E24" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F24" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E25" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F25" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" t="s">
+        <v>59</v>
+      </c>
+      <c r="D26" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E26" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F26" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" t="s">
+        <v>59</v>
+      </c>
+      <c r="D27" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E27" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F27" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E28" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F28" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>59</v>
+      </c>
+      <c r="D29" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E29" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F29" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E30" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F30" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E31" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F31" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E32" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F32" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E33" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F33" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>59</v>
+      </c>
+      <c r="D34" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E34" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F34" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E35" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F35" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D36" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E36" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F36" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>59</v>
+      </c>
+      <c r="D37" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E37" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F37" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" t="s">
+        <v>59</v>
+      </c>
+      <c r="D38" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E38" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F38" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39" t="s">
+        <v>59</v>
+      </c>
+      <c r="D39" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E39" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F39" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>43</v>
+      </c>
+      <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E40" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F40" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C41" t="s">
+        <v>59</v>
+      </c>
+      <c r="D41" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E41" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F41" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" t="s">
+        <v>59</v>
+      </c>
+      <c r="D42" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E42" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F42" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>44</v>
+      </c>
+      <c r="B43" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="1">
+        <v>42068</v>
+      </c>
+      <c r="E43" s="1">
+        <v>42104</v>
+      </c>
+      <c r="F43" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" s="1">
+        <v>42012</v>
+      </c>
+      <c r="E44" s="1">
+        <v>42066</v>
+      </c>
+      <c r="F44" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45" s="1">
+        <v>42012</v>
+      </c>
+      <c r="E45" s="1">
+        <v>42066</v>
+      </c>
+      <c r="F45" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" s="1">
+        <v>42012</v>
+      </c>
+      <c r="E46" s="1">
+        <v>42066</v>
+      </c>
+      <c r="F46" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" t="s">
+        <v>59</v>
+      </c>
+      <c r="D47" s="1">
+        <v>42012</v>
+      </c>
+      <c r="E47" s="1">
+        <v>42066</v>
+      </c>
+      <c r="F47" s="1">
+        <v>42663</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" t="s">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>13</v>
+      </c>
+      <c r="C48" t="s">
+        <v>59</v>
+      </c>
+      <c r="D48" s="1">
+        <v>42012</v>
+      </c>
+      <c r="E48" s="1">
+        <v>42066</v>
+      </c>
+      <c r="F48" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>13</v>
+      </c>
+      <c r="C49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D49" s="1">
+        <v>42012</v>
+      </c>
+      <c r="E49" s="1">
+        <v>42066</v>
+      </c>
+      <c r="F49" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" t="s">
+        <v>47</v>
+      </c>
+      <c r="B50" t="s">
+        <v>13</v>
+      </c>
+      <c r="C50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D50" s="1">
+        <v>42012</v>
+      </c>
+      <c r="E50" s="1">
+        <v>42066</v>
+      </c>
+      <c r="F50" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" s="1">
+        <v>42012</v>
+      </c>
+      <c r="E51" s="1">
+        <v>42066</v>
+      </c>
+      <c r="F51" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" t="s">
+        <v>46</v>
+      </c>
+      <c r="B52" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" t="s">
+        <v>59</v>
+      </c>
+      <c r="D52" s="1">
+        <v>42012</v>
+      </c>
+      <c r="E52" s="1">
+        <v>42066</v>
+      </c>
+      <c r="F52" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" t="s">
+        <v>13</v>
+      </c>
+      <c r="C53" t="s">
+        <v>59</v>
+      </c>
+      <c r="D53" s="1">
+        <v>41967</v>
+      </c>
+      <c r="E53" s="1">
+        <v>42065</v>
+      </c>
+      <c r="F53" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" t="s">
+        <v>49</v>
+      </c>
+      <c r="B54" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="1">
+        <v>41967</v>
+      </c>
+      <c r="E54" s="1">
+        <v>42065</v>
+      </c>
+      <c r="F54" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" t="s">
+        <v>49</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="C55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" s="1">
+        <v>41967</v>
+      </c>
+      <c r="E55" s="1">
+        <v>42065</v>
+      </c>
+      <c r="F55" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" t="s">
+        <v>50</v>
+      </c>
+      <c r="B56" t="s">
+        <v>13</v>
+      </c>
+      <c r="C56" t="s">
+        <v>59</v>
+      </c>
+      <c r="D56" s="1">
+        <v>41967</v>
+      </c>
+      <c r="E56" s="1">
+        <v>42065</v>
+      </c>
+      <c r="F56" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" t="s">
+        <v>59</v>
+      </c>
+      <c r="D57" s="1">
+        <v>41967</v>
+      </c>
+      <c r="E57" s="1">
+        <v>42065</v>
+      </c>
+      <c r="F57" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" t="s">
+        <v>59</v>
+      </c>
+      <c r="D58" s="1">
+        <v>41967</v>
+      </c>
+      <c r="E58" s="1">
+        <v>42065</v>
+      </c>
+      <c r="F58" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" t="s">
+        <v>49</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59" t="s">
+        <v>59</v>
+      </c>
+      <c r="D59" s="1">
+        <v>41967</v>
+      </c>
+      <c r="E59" s="1">
+        <v>42065</v>
+      </c>
+      <c r="F59" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" t="s">
+        <v>49</v>
+      </c>
+      <c r="B60" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" t="s">
+        <v>59</v>
+      </c>
+      <c r="D60" s="1">
+        <v>41967</v>
+      </c>
+      <c r="E60" s="1">
+        <v>42065</v>
+      </c>
+      <c r="F60" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" t="s">
+        <v>50</v>
+      </c>
+      <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61" t="s">
+        <v>59</v>
+      </c>
+      <c r="D61" s="1">
+        <v>41967</v>
+      </c>
+      <c r="E61" s="1">
+        <v>42065</v>
+      </c>
+      <c r="F61" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" t="s">
+        <v>51</v>
+      </c>
+      <c r="B62" t="s">
+        <v>12</v>
+      </c>
+      <c r="C62" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D62" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E62" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F62" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" t="s">
+        <v>12</v>
+      </c>
+      <c r="C63" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D63" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E63" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F63" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B64" t="s">
+        <v>12</v>
+      </c>
+      <c r="C64" s="1">
+        <v>42263</v>
+      </c>
+      <c r="D64" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E64" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F64" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" t="s">
+        <v>51</v>
+      </c>
+      <c r="B65" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D65" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E65" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F65" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" t="s">
+        <v>52</v>
+      </c>
+      <c r="B66" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="1">
+        <v>42263</v>
+      </c>
+      <c r="D66" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E66" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F66" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" t="s">
+        <v>53</v>
+      </c>
+      <c r="B67" t="s">
+        <v>12</v>
+      </c>
+      <c r="C67" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D67" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E67" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F67" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" t="s">
+        <v>12</v>
+      </c>
+      <c r="C68" s="1">
+        <v>42263</v>
+      </c>
+      <c r="D68" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E68" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F68" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" t="s">
+        <v>52</v>
+      </c>
+      <c r="B69" t="s">
+        <v>12</v>
+      </c>
+      <c r="C69" s="1">
+        <v>42263</v>
+      </c>
+      <c r="D69" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E69" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F69" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" t="s">
+        <v>12</v>
+      </c>
+      <c r="C70" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D70" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E70" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F70" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
+      <c r="A71" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" t="s">
+        <v>12</v>
+      </c>
+      <c r="C71" s="1">
+        <v>42263</v>
+      </c>
+      <c r="D71" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E71" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F71" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" t="s">
+        <v>51</v>
+      </c>
+      <c r="B72" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D72" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E72" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F72" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" t="s">
+        <v>53</v>
+      </c>
+      <c r="B73" t="s">
+        <v>12</v>
+      </c>
+      <c r="C73" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D73" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E73" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F73" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" t="s">
+        <v>53</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D74" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E74" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F74" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>53</v>
+      </c>
+      <c r="B75" t="s">
+        <v>12</v>
+      </c>
+      <c r="C75" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D75" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E75" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F75" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" t="s">
+        <v>53</v>
+      </c>
+      <c r="B76" t="s">
+        <v>12</v>
+      </c>
+      <c r="C76" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D76" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E76" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F76" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="1">
+        <v>42263</v>
+      </c>
+      <c r="D77" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E77" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F77" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" t="s">
+        <v>12</v>
+      </c>
+      <c r="C78" s="1">
+        <v>42263</v>
+      </c>
+      <c r="D78" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E78" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F78" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" t="s">
+        <v>55</v>
+      </c>
+      <c r="B79" t="s">
+        <v>12</v>
+      </c>
+      <c r="C79" s="1">
+        <v>42255</v>
+      </c>
+      <c r="D79" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E79" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F79" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="1">
+        <v>42263</v>
+      </c>
+      <c r="D80" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E80" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F80" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
+      <c r="A81" t="s">
+        <v>56</v>
+      </c>
+      <c r="B81" t="s">
+        <v>12</v>
+      </c>
+      <c r="C81" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D81" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E81" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F81" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
+      <c r="A82" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82" s="1">
+        <v>42263</v>
+      </c>
+      <c r="D82" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E82" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F82" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
+      <c r="A83" t="s">
+        <v>56</v>
+      </c>
+      <c r="B83" t="s">
+        <v>12</v>
+      </c>
+      <c r="C83" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D83" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E83" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F83" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
+      <c r="A84" t="s">
+        <v>55</v>
+      </c>
+      <c r="B84" t="s">
+        <v>12</v>
+      </c>
+      <c r="C84" s="1">
+        <v>42255</v>
+      </c>
+      <c r="D84" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E84" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F84" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
+      <c r="A85" t="s">
+        <v>49</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85" s="1">
+        <v>42251</v>
+      </c>
+      <c r="D85" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E85" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F85" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
+      <c r="A86" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" t="s">
+        <v>12</v>
+      </c>
+      <c r="C86" s="1">
+        <v>42263</v>
+      </c>
+      <c r="D86" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E86" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F86" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
+      <c r="A87" t="s">
+        <v>57</v>
+      </c>
+      <c r="B87" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="1">
+        <v>42226</v>
+      </c>
+      <c r="D87" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E87" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F87" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
+      <c r="A88" t="s">
+        <v>58</v>
+      </c>
+      <c r="B88" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="1">
+        <v>42226</v>
+      </c>
+      <c r="D88" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E88" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F88" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
+      <c r="A89" t="s">
+        <v>57</v>
+      </c>
+      <c r="B89" t="s">
+        <v>12</v>
+      </c>
+      <c r="C89" s="1">
+        <v>42226</v>
+      </c>
+      <c r="D89" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E89" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F89" s="1">
+        <v>42667</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/input/Exp.Individs.xlsx
+++ b/input/Exp.Individs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/springfreeze/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="14700" yWindow="1980" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,18 +20,18 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="81">
   <si>
     <t>Species</t>
   </si>
@@ -206,6 +211,69 @@
   </si>
   <si>
     <t>UNK</t>
+  </si>
+  <si>
+    <t>Raised Beds</t>
+  </si>
+  <si>
+    <t>PRUPEN11_GR</t>
+  </si>
+  <si>
+    <t>PRUPEN08_SH</t>
+  </si>
+  <si>
+    <t>PRUPEN12_SH</t>
+  </si>
+  <si>
+    <t>PRUPEN02_SH</t>
+  </si>
+  <si>
+    <t>PRUPEN05_SH</t>
+  </si>
+  <si>
+    <t>BETPOP06_GR</t>
+  </si>
+  <si>
+    <t>PRUPEN03_WM</t>
+  </si>
+  <si>
+    <t>BETPOP08_WM</t>
+  </si>
+  <si>
+    <t>ALNINC07_GR</t>
+  </si>
+  <si>
+    <t>PRUPEN02_WM</t>
+  </si>
+  <si>
+    <t>BETPOP05_GR</t>
+  </si>
+  <si>
+    <t>BETPOP07_WM</t>
+  </si>
+  <si>
+    <t>BETALL09_SH</t>
+  </si>
+  <si>
+    <t>BETALL09_WM</t>
+  </si>
+  <si>
+    <t>BETALL13_GR</t>
+  </si>
+  <si>
+    <t>BETALL15_GR</t>
+  </si>
+  <si>
+    <t>BETALL08_WM</t>
+  </si>
+  <si>
+    <t>BETALL04_SH</t>
+  </si>
+  <si>
+    <t>BETALL08_SH</t>
+  </si>
+  <si>
+    <t>NA</t>
   </si>
 </sst>
 </file>
@@ -663,7 +731,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -680,9 +748,9 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -723,7 +791,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -758,7 +826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -793,7 +861,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -831,7 +899,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -866,7 +934,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -901,7 +969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -936,7 +1004,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -974,7 +1042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1003,7 +1071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1032,7 +1100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1061,7 +1129,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1090,7 +1158,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1116,7 +1184,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1145,7 +1213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1174,7 +1242,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1203,7 +1271,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1232,7 +1300,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1258,7 +1326,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1287,7 +1355,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1316,7 +1384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1327,7 +1395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1341,7 +1409,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1352,7 +1420,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1366,7 +1434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1380,7 +1448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1394,7 +1462,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1405,7 +1473,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1419,7 +1487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1433,7 +1501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1447,7 +1515,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1472,34 +1540,30 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G89"/>
+  <dimension ref="A1:H146"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24:C61"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="A146" sqref="A146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1516,13 +1580,16 @@
         <v>29</v>
       </c>
       <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1538,11 +1605,14 @@
       <c r="E2" s="1">
         <v>42454</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1558,11 +1628,14 @@
       <c r="E3" s="1">
         <v>42454</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G3" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1578,11 +1651,14 @@
       <c r="E4" s="1">
         <v>42454</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G4" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1598,11 +1674,14 @@
       <c r="E5" s="1">
         <v>42454</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G5" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1618,11 +1697,14 @@
       <c r="E6" s="1">
         <v>42454</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1638,11 +1720,14 @@
       <c r="E7" s="1">
         <v>42454</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1658,11 +1743,14 @@
       <c r="E8" s="1">
         <v>42454</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1678,11 +1766,14 @@
       <c r="E9" s="1">
         <v>42454</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G9" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1698,11 +1789,14 @@
       <c r="E10" s="1">
         <v>42454</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G10" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1718,11 +1812,14 @@
       <c r="E11" s="1">
         <v>42454</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1738,11 +1835,14 @@
       <c r="E12" s="1">
         <v>42454</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G12" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1758,11 +1858,14 @@
       <c r="E13" s="1">
         <v>42454</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G13" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1778,11 +1881,14 @@
       <c r="E14" s="1">
         <v>42454</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1798,11 +1904,14 @@
       <c r="E15" s="1">
         <v>42454</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1818,11 +1927,14 @@
       <c r="E16" s="1">
         <v>42454</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1838,11 +1950,14 @@
       <c r="E17" s="1">
         <v>42454</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G17" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1858,11 +1973,14 @@
       <c r="E18" s="1">
         <v>42454</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G18" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -1878,11 +1996,14 @@
       <c r="E19" s="1">
         <v>42454</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -1898,11 +2019,14 @@
       <c r="E20" s="1">
         <v>42454</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1918,11 +2042,14 @@
       <c r="E21" s="1">
         <v>42454</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="1">
         <v>42661</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -1938,11 +2065,14 @@
       <c r="E22" s="1">
         <v>42454</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -1959,10 +2089,13 @@
         <v>42104</v>
       </c>
       <c r="F23" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G23" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1979,10 +2112,13 @@
         <v>42104</v>
       </c>
       <c r="F24" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G24" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -1999,10 +2135,13 @@
         <v>42104</v>
       </c>
       <c r="F25" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G25" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2019,10 +2158,13 @@
         <v>42104</v>
       </c>
       <c r="F26" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G26" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2039,10 +2181,13 @@
         <v>42104</v>
       </c>
       <c r="F27" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G27" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2059,10 +2204,13 @@
         <v>42104</v>
       </c>
       <c r="F28" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G28" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2079,10 +2227,13 @@
         <v>42104</v>
       </c>
       <c r="F29" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G29" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2099,10 +2250,13 @@
         <v>42104</v>
       </c>
       <c r="F30" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G30" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2119,10 +2273,13 @@
         <v>42104</v>
       </c>
       <c r="F31" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G31" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2139,10 +2296,13 @@
         <v>42104</v>
       </c>
       <c r="F32" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G32" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2159,10 +2319,13 @@
         <v>42104</v>
       </c>
       <c r="F33" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G33" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2179,10 +2342,13 @@
         <v>42104</v>
       </c>
       <c r="F34" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G34" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2199,10 +2365,13 @@
         <v>42104</v>
       </c>
       <c r="F35" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G35" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2219,10 +2388,13 @@
         <v>42104</v>
       </c>
       <c r="F36" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G36" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2239,10 +2411,13 @@
         <v>42104</v>
       </c>
       <c r="F37" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G37" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2259,10 +2434,13 @@
         <v>42104</v>
       </c>
       <c r="F38" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G38" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2279,10 +2457,13 @@
         <v>42104</v>
       </c>
       <c r="F39" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G39" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2299,10 +2480,13 @@
         <v>42104</v>
       </c>
       <c r="F40" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G40" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2319,10 +2503,13 @@
         <v>42104</v>
       </c>
       <c r="F41" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G41" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2339,10 +2526,13 @@
         <v>42104</v>
       </c>
       <c r="F42" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G42" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2359,10 +2549,13 @@
         <v>42104</v>
       </c>
       <c r="F43" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G43" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2379,10 +2572,13 @@
         <v>42066</v>
       </c>
       <c r="F44" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G44" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2399,10 +2595,13 @@
         <v>42066</v>
       </c>
       <c r="F45" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G45" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2419,10 +2618,13 @@
         <v>42066</v>
       </c>
       <c r="F46" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G46" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2439,10 +2641,13 @@
         <v>42066</v>
       </c>
       <c r="F47" s="1">
+        <v>42185</v>
+      </c>
+      <c r="G47" s="1">
         <v>42663</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2459,10 +2664,13 @@
         <v>42066</v>
       </c>
       <c r="F48" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>42185</v>
+      </c>
+      <c r="G48" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2479,10 +2687,13 @@
         <v>42066</v>
       </c>
       <c r="F49" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>42185</v>
+      </c>
+      <c r="G49" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2499,10 +2710,13 @@
         <v>42066</v>
       </c>
       <c r="F50" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>42185</v>
+      </c>
+      <c r="G50" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -2519,10 +2733,13 @@
         <v>42066</v>
       </c>
       <c r="F51" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>42185</v>
+      </c>
+      <c r="G51" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -2539,10 +2756,13 @@
         <v>42066</v>
       </c>
       <c r="F52" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
+        <v>42185</v>
+      </c>
+      <c r="G52" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -2559,10 +2779,13 @@
         <v>42065</v>
       </c>
       <c r="F53" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>42185</v>
+      </c>
+      <c r="G53" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -2579,10 +2802,13 @@
         <v>42065</v>
       </c>
       <c r="F54" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>42185</v>
+      </c>
+      <c r="G54" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2599,10 +2825,13 @@
         <v>42065</v>
       </c>
       <c r="F55" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>42185</v>
+      </c>
+      <c r="G55" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -2619,10 +2848,13 @@
         <v>42065</v>
       </c>
       <c r="F56" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>42185</v>
+      </c>
+      <c r="G56" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2639,10 +2871,13 @@
         <v>42065</v>
       </c>
       <c r="F57" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>42185</v>
+      </c>
+      <c r="G57" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -2659,10 +2894,13 @@
         <v>42065</v>
       </c>
       <c r="F58" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>42185</v>
+      </c>
+      <c r="G58" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -2679,10 +2917,13 @@
         <v>42065</v>
       </c>
       <c r="F59" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>42185</v>
+      </c>
+      <c r="G59" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2699,10 +2940,13 @@
         <v>42065</v>
       </c>
       <c r="F60" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>42185</v>
+      </c>
+      <c r="G60" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -2719,10 +2963,13 @@
         <v>42065</v>
       </c>
       <c r="F61" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>42185</v>
+      </c>
+      <c r="G61" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -2738,11 +2985,14 @@
       <c r="E62" s="1">
         <v>42418</v>
       </c>
-      <c r="F62" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="F62" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G62" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -2758,11 +3008,14 @@
       <c r="E63" s="1">
         <v>42418</v>
       </c>
-      <c r="F63" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+      <c r="F63" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G63" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -2778,11 +3031,14 @@
       <c r="E64" s="1">
         <v>42418</v>
       </c>
-      <c r="F64" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+      <c r="F64" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G64" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -2798,11 +3054,14 @@
       <c r="E65" s="1">
         <v>42418</v>
       </c>
-      <c r="F65" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+      <c r="F65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G65" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -2818,11 +3077,14 @@
       <c r="E66" s="1">
         <v>42418</v>
       </c>
-      <c r="F66" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+      <c r="F66" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G66" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -2838,11 +3100,14 @@
       <c r="E67" s="1">
         <v>42418</v>
       </c>
-      <c r="F67" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+      <c r="F67" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G67" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -2858,11 +3123,14 @@
       <c r="E68" s="1">
         <v>42418</v>
       </c>
-      <c r="F68" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+      <c r="F68" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G68" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -2878,11 +3146,14 @@
       <c r="E69" s="1">
         <v>42418</v>
       </c>
-      <c r="F69" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+      <c r="F69" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G69" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -2898,11 +3169,14 @@
       <c r="E70" s="1">
         <v>42418</v>
       </c>
-      <c r="F70" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="F70" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G70" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>52</v>
       </c>
@@ -2918,11 +3192,14 @@
       <c r="E71" s="1">
         <v>42418</v>
       </c>
-      <c r="F71" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+      <c r="F71" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G71" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>51</v>
       </c>
@@ -2938,11 +3215,14 @@
       <c r="E72" s="1">
         <v>42418</v>
       </c>
-      <c r="F72" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+      <c r="F72" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G72" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -2958,11 +3238,14 @@
       <c r="E73" s="1">
         <v>42418</v>
       </c>
-      <c r="F73" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+      <c r="F73" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G73" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -2978,11 +3261,14 @@
       <c r="E74" s="1">
         <v>42418</v>
       </c>
-      <c r="F74" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+      <c r="F74" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G74" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -2998,11 +3284,14 @@
       <c r="E75" s="1">
         <v>42418</v>
       </c>
-      <c r="F75" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+      <c r="F75" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G75" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>53</v>
       </c>
@@ -3018,11 +3307,14 @@
       <c r="E76" s="1">
         <v>42418</v>
       </c>
-      <c r="F76" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+      <c r="F76" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G76" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -3038,11 +3330,14 @@
       <c r="E77" s="1">
         <v>42418</v>
       </c>
-      <c r="F77" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+      <c r="F77" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G77" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>54</v>
       </c>
@@ -3058,11 +3353,14 @@
       <c r="E78" s="1">
         <v>42418</v>
       </c>
-      <c r="F78" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+      <c r="F78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G78" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -3078,11 +3376,14 @@
       <c r="E79" s="1">
         <v>42418</v>
       </c>
-      <c r="F79" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="F79" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G79" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>54</v>
       </c>
@@ -3098,11 +3399,14 @@
       <c r="E80" s="1">
         <v>42418</v>
       </c>
-      <c r="F80" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+      <c r="F80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G80" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -3118,11 +3422,14 @@
       <c r="E81" s="1">
         <v>42418</v>
       </c>
-      <c r="F81" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+      <c r="F81" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G81" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -3138,11 +3445,14 @@
       <c r="E82" s="1">
         <v>42418</v>
       </c>
-      <c r="F82" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="F82" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G82" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>56</v>
       </c>
@@ -3158,11 +3468,14 @@
       <c r="E83" s="1">
         <v>42418</v>
       </c>
-      <c r="F83" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+      <c r="F83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G83" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>55</v>
       </c>
@@ -3178,11 +3491,14 @@
       <c r="E84" s="1">
         <v>42418</v>
       </c>
-      <c r="F84" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="F84" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G84" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>49</v>
       </c>
@@ -3198,11 +3514,14 @@
       <c r="E85" s="1">
         <v>42418</v>
       </c>
-      <c r="F85" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+      <c r="F85" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G85" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -3218,11 +3537,14 @@
       <c r="E86" s="1">
         <v>42418</v>
       </c>
-      <c r="F86" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+      <c r="F86" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G86" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -3238,11 +3560,14 @@
       <c r="E87" s="1">
         <v>42488</v>
       </c>
-      <c r="F87" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+      <c r="F87" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G87" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>58</v>
       </c>
@@ -3258,11 +3583,14 @@
       <c r="E88" s="1">
         <v>42488</v>
       </c>
-      <c r="F88" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+      <c r="F88" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G88" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>57</v>
       </c>
@@ -3278,17 +3606,1326 @@
       <c r="E89" s="1">
         <v>42488</v>
       </c>
-      <c r="F89" s="1">
-        <v>42667</v>
+      <c r="F89" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G89" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>61</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D90" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E90" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F90" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G90" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" t="s">
+        <v>12</v>
+      </c>
+      <c r="C91" s="1">
+        <v>42216</v>
+      </c>
+      <c r="D91" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E91" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F91" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G91" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>62</v>
+      </c>
+      <c r="B92" t="s">
+        <v>12</v>
+      </c>
+      <c r="C92" s="1">
+        <v>42216</v>
+      </c>
+      <c r="D92" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E92" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G92" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" t="s">
+        <v>12</v>
+      </c>
+      <c r="C93" s="1">
+        <v>42216</v>
+      </c>
+      <c r="D93" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E93" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F93" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G93" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>62</v>
+      </c>
+      <c r="B94" t="s">
+        <v>12</v>
+      </c>
+      <c r="C94" s="1">
+        <v>42216</v>
+      </c>
+      <c r="D94" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E94" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G94" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" t="s">
+        <v>12</v>
+      </c>
+      <c r="C95" s="1">
+        <v>42216</v>
+      </c>
+      <c r="D95" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E95" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G95" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>62</v>
+      </c>
+      <c r="B96" t="s">
+        <v>12</v>
+      </c>
+      <c r="C96" s="1">
+        <v>42216</v>
+      </c>
+      <c r="D96" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E96" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F96" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G96" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>63</v>
+      </c>
+      <c r="B97" t="s">
+        <v>12</v>
+      </c>
+      <c r="C97" s="1">
+        <v>42255</v>
+      </c>
+      <c r="D97" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E97" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F97" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G97" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>64</v>
+      </c>
+      <c r="B98" t="s">
+        <v>12</v>
+      </c>
+      <c r="C98" s="1">
+        <v>42216</v>
+      </c>
+      <c r="D98" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E98" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G98" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>65</v>
+      </c>
+      <c r="B99" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="1">
+        <v>42216</v>
+      </c>
+      <c r="D99" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E99" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G99" s="1">
+        <v>42667</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>66</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D100" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E100" s="1">
+        <v>42527</v>
+      </c>
+      <c r="F100" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G100" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>66</v>
+      </c>
+      <c r="B101" t="s">
+        <v>12</v>
+      </c>
+      <c r="C101" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D101" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E101" s="1">
+        <v>42527</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G101" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D102" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E102" s="1">
+        <v>42527</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G102" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>66</v>
+      </c>
+      <c r="B103" t="s">
+        <v>12</v>
+      </c>
+      <c r="C103" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D103" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E103" s="1">
+        <v>42527</v>
+      </c>
+      <c r="F103" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G103" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>66</v>
+      </c>
+      <c r="B104" t="s">
+        <v>12</v>
+      </c>
+      <c r="C104" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D104" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E104" s="1">
+        <v>42527</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G104" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>65</v>
+      </c>
+      <c r="B105" t="s">
+        <v>12</v>
+      </c>
+      <c r="C105" s="1">
+        <v>42216</v>
+      </c>
+      <c r="D105" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E105" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G105" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>67</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106" s="1">
+        <v>42227</v>
+      </c>
+      <c r="D106" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E106" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F106" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G106" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" t="s">
+        <v>12</v>
+      </c>
+      <c r="C107" s="1">
+        <v>42263</v>
+      </c>
+      <c r="D107" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E107" s="1">
+        <v>42569</v>
+      </c>
+      <c r="F107" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G107" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>69</v>
+      </c>
+      <c r="B108" t="s">
+        <v>12</v>
+      </c>
+      <c r="C108" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D108" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E108" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F108" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G108" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>70</v>
+      </c>
+      <c r="B109" t="s">
+        <v>12</v>
+      </c>
+      <c r="C109" s="1">
+        <v>42227</v>
+      </c>
+      <c r="D109" s="1">
+        <v>42476</v>
+      </c>
+      <c r="E109" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F109" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G109" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>69</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D110" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E110" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F110" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G110" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>69</v>
+      </c>
+      <c r="B111" t="s">
+        <v>12</v>
+      </c>
+      <c r="C111" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D111" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E111" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F111" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G111" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>62</v>
+      </c>
+      <c r="B112" t="s">
+        <v>12</v>
+      </c>
+      <c r="C112" s="1">
+        <v>42216</v>
+      </c>
+      <c r="D112" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E112" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G112" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>66</v>
+      </c>
+      <c r="B113" t="s">
+        <v>12</v>
+      </c>
+      <c r="C113" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D113" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E113" s="1">
+        <v>42527</v>
+      </c>
+      <c r="F113" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G113" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>68</v>
+      </c>
+      <c r="B114" t="s">
+        <v>12</v>
+      </c>
+      <c r="C114" s="1">
+        <v>42263</v>
+      </c>
+      <c r="D114" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E114" s="1">
+        <v>42569</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G114" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>66</v>
+      </c>
+      <c r="B115" t="s">
+        <v>12</v>
+      </c>
+      <c r="C115" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D115" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E115" s="1">
+        <v>42527</v>
+      </c>
+      <c r="F115" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G115" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>63</v>
+      </c>
+      <c r="B116" t="s">
+        <v>12</v>
+      </c>
+      <c r="C116" s="1">
+        <v>42255</v>
+      </c>
+      <c r="D116" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E116" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F116" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G116" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>69</v>
+      </c>
+      <c r="B117" t="s">
+        <v>12</v>
+      </c>
+      <c r="C117" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D117" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E117" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F117" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G117" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>66</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D118" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E118" s="1">
+        <v>42527</v>
+      </c>
+      <c r="F118" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G118" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>69</v>
+      </c>
+      <c r="B119" t="s">
+        <v>12</v>
+      </c>
+      <c r="C119" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D119" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E119" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F119" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G119" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>68</v>
+      </c>
+      <c r="B120" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="1">
+        <v>42263</v>
+      </c>
+      <c r="D120" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E120" s="1">
+        <v>42569</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G120" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>69</v>
+      </c>
+      <c r="B121" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D121" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E121" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F121" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G121" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>66</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D122" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E122" s="1">
+        <v>42527</v>
+      </c>
+      <c r="F122" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G122" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>69</v>
+      </c>
+      <c r="B123" t="s">
+        <v>12</v>
+      </c>
+      <c r="C123" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D123" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E123" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G123" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>66</v>
+      </c>
+      <c r="B124" t="s">
+        <v>12</v>
+      </c>
+      <c r="C124" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D124" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E124" s="1">
+        <v>42527</v>
+      </c>
+      <c r="F124" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G124" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>69</v>
+      </c>
+      <c r="B125" t="s">
+        <v>12</v>
+      </c>
+      <c r="C125" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D125" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E125" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F125" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G125" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>69</v>
+      </c>
+      <c r="B126" t="s">
+        <v>12</v>
+      </c>
+      <c r="C126" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D126" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E126" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F126" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G126" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>71</v>
+      </c>
+      <c r="B127" t="s">
+        <v>12</v>
+      </c>
+      <c r="C127" s="1">
+        <v>42257</v>
+      </c>
+      <c r="D127" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E127" s="1">
+        <v>42527</v>
+      </c>
+      <c r="F127" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G127" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>72</v>
+      </c>
+      <c r="B128" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="1">
+        <v>42263</v>
+      </c>
+      <c r="D128" s="1">
+        <v>42453</v>
+      </c>
+      <c r="E128" s="1">
+        <v>42528</v>
+      </c>
+      <c r="F128" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G128" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>73</v>
+      </c>
+      <c r="B129" t="s">
+        <v>12</v>
+      </c>
+      <c r="C129" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D129" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E129" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F129" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G129" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>74</v>
+      </c>
+      <c r="B130" t="s">
+        <v>12</v>
+      </c>
+      <c r="C130" s="1">
+        <v>42317</v>
+      </c>
+      <c r="D130" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E130" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G130" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>75</v>
+      </c>
+      <c r="B131" t="s">
+        <v>12</v>
+      </c>
+      <c r="C131" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D131" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E131" s="1">
+        <v>42454</v>
+      </c>
+      <c r="F131" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G131" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>73</v>
+      </c>
+      <c r="B132" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D132" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E132" s="1">
+        <v>42454</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G132" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>75</v>
+      </c>
+      <c r="B133" t="s">
+        <v>12</v>
+      </c>
+      <c r="C133" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D133" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E133" s="1">
+        <v>42454</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G133" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>73</v>
+      </c>
+      <c r="B134" t="s">
+        <v>12</v>
+      </c>
+      <c r="C134" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D134" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E134" s="1">
+        <v>42454</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G134" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>75</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D135" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E135" s="1">
+        <v>42454</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G135" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>73</v>
+      </c>
+      <c r="B136" t="s">
+        <v>12</v>
+      </c>
+      <c r="C136" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D136" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E136" s="1">
+        <v>42454</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G136" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>76</v>
+      </c>
+      <c r="B137" t="s">
+        <v>12</v>
+      </c>
+      <c r="C137" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D137" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E137" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F137" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G137" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>76</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D138" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E138" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G138" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>74</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139" s="1">
+        <v>42317</v>
+      </c>
+      <c r="D139" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E139" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F139" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G139" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>77</v>
+      </c>
+      <c r="B140" t="s">
+        <v>12</v>
+      </c>
+      <c r="C140" s="1">
+        <v>42317</v>
+      </c>
+      <c r="D140" s="1">
+        <v>42453</v>
+      </c>
+      <c r="E140" s="1">
+        <v>42474</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G140" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>78</v>
+      </c>
+      <c r="B141" t="s">
+        <v>12</v>
+      </c>
+      <c r="C141" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D141" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E141" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F141" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G141" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>77</v>
+      </c>
+      <c r="B142" t="s">
+        <v>12</v>
+      </c>
+      <c r="C142" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D142" s="1">
+        <v>42453</v>
+      </c>
+      <c r="E142" s="1">
+        <v>42474</v>
+      </c>
+      <c r="F142" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G142" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>75</v>
+      </c>
+      <c r="B143" t="s">
+        <v>12</v>
+      </c>
+      <c r="C143" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D143" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E143" s="1">
+        <v>42454</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G143" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>79</v>
+      </c>
+      <c r="B144" t="s">
+        <v>12</v>
+      </c>
+      <c r="C144" s="1">
+        <v>42256</v>
+      </c>
+      <c r="D144" s="1">
+        <v>42412</v>
+      </c>
+      <c r="E144" s="1">
+        <v>42454</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G144" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>77</v>
+      </c>
+      <c r="B145" t="s">
+        <v>12</v>
+      </c>
+      <c r="C145" s="1">
+        <v>42248</v>
+      </c>
+      <c r="D145" s="1">
+        <v>42453</v>
+      </c>
+      <c r="E145" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F145" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G145" s="1">
+        <v>42674</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>77</v>
+      </c>
+      <c r="B146" t="s">
+        <v>12</v>
+      </c>
+      <c r="C146" s="1">
+        <v>42248</v>
+      </c>
+      <c r="D146" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E146" s="1">
+        <v>42488</v>
+      </c>
+      <c r="F146" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G146" s="1">
+        <v>42674</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/input/Exp.Individs.xlsx
+++ b/input/Exp.Individs.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27430"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/springfreeze/input/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="1980" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,21 +12,22 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$H$1</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="615" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="82">
   <si>
     <t>Species</t>
   </si>
@@ -274,6 +270,9 @@
   </si>
   <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>VIBCAS09_WM</t>
   </si>
 </sst>
 </file>
@@ -328,8 +327,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="65">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -399,7 +400,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="65">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -432,6 +433,7 @@
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -464,6 +466,7 @@
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -731,7 +734,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -748,9 +751,9 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +794,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -826,7 +829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -861,7 +864,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -899,7 +902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -934,7 +937,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -969,7 +972,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1004,7 +1007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1042,7 +1045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1074,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1100,7 +1103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1129,7 +1132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1158,7 +1161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1184,7 +1187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1242,7 +1245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1271,7 +1274,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1300,7 +1303,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1326,7 +1329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1355,7 +1358,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1384,7 +1387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1395,7 +1398,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1409,7 +1412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1420,7 +1423,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1434,7 +1437,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1448,7 +1451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1462,7 +1465,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1473,7 +1476,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1487,7 +1490,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1501,7 +1504,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1515,7 +1518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1540,18 +1543,26 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H146"/>
+  <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="A146" sqref="A146"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A148" sqref="A148:G148"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -1563,7 +1574,7 @@
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1589,7 +1600,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>32</v>
       </c>
@@ -1612,7 +1623,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>32</v>
       </c>
@@ -1635,7 +1646,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -1658,7 +1669,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
         <v>33</v>
       </c>
@@ -1681,7 +1692,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -1704,7 +1715,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1727,7 +1738,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1750,7 +1761,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
         <v>32</v>
       </c>
@@ -1773,7 +1784,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -1796,7 +1807,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1819,7 +1830,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
         <v>35</v>
       </c>
@@ -1842,7 +1853,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1865,7 +1876,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1888,7 +1899,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -1911,7 +1922,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
         <v>34</v>
       </c>
@@ -1934,7 +1945,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>34</v>
       </c>
@@ -1957,7 +1968,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>34</v>
       </c>
@@ -1980,7 +1991,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>35</v>
       </c>
@@ -2003,7 +2014,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>35</v>
       </c>
@@ -2026,7 +2037,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -2049,7 +2060,7 @@
         <v>42661</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>34</v>
       </c>
@@ -2072,7 +2083,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>36</v>
       </c>
@@ -2095,7 +2106,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -2118,7 +2129,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>38</v>
       </c>
@@ -2141,7 +2152,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -2164,7 +2175,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -2187,7 +2198,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>40</v>
       </c>
@@ -2210,7 +2221,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="s">
         <v>39</v>
       </c>
@@ -2233,7 +2244,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2256,7 +2267,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2279,7 +2290,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="s">
         <v>37</v>
       </c>
@@ -2302,7 +2313,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7">
       <c r="A33" t="s">
         <v>37</v>
       </c>
@@ -2325,7 +2336,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7">
       <c r="A34" t="s">
         <v>37</v>
       </c>
@@ -2348,7 +2359,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2371,7 +2382,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7">
       <c r="A36" t="s">
         <v>43</v>
       </c>
@@ -2394,7 +2405,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7">
       <c r="A37" t="s">
         <v>38</v>
       </c>
@@ -2417,7 +2428,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7">
       <c r="A38" t="s">
         <v>42</v>
       </c>
@@ -2440,7 +2451,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2463,7 +2474,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -2486,7 +2497,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7">
       <c r="A41" t="s">
         <v>44</v>
       </c>
@@ -2509,7 +2520,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7">
       <c r="A42" t="s">
         <v>44</v>
       </c>
@@ -2532,7 +2543,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7">
       <c r="A43" t="s">
         <v>44</v>
       </c>
@@ -2555,7 +2566,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7">
       <c r="A44" t="s">
         <v>45</v>
       </c>
@@ -2578,7 +2589,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -2601,7 +2612,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7">
       <c r="A46" t="s">
         <v>47</v>
       </c>
@@ -2624,7 +2635,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -2647,7 +2658,7 @@
         <v>42663</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -2670,7 +2681,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2693,7 +2704,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:7">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2716,7 +2727,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:7">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -2739,7 +2750,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:7">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -2762,7 +2773,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:7">
       <c r="A53" t="s">
         <v>49</v>
       </c>
@@ -2785,7 +2796,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:7">
       <c r="A54" t="s">
         <v>49</v>
       </c>
@@ -2808,7 +2819,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:7">
       <c r="A55" t="s">
         <v>49</v>
       </c>
@@ -2831,7 +2842,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:7">
       <c r="A56" t="s">
         <v>50</v>
       </c>
@@ -2854,7 +2865,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:7">
       <c r="A57" t="s">
         <v>49</v>
       </c>
@@ -2877,7 +2888,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:7">
       <c r="A58" t="s">
         <v>49</v>
       </c>
@@ -2900,7 +2911,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:7">
       <c r="A59" t="s">
         <v>49</v>
       </c>
@@ -2923,7 +2934,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:7">
       <c r="A60" t="s">
         <v>49</v>
       </c>
@@ -2946,7 +2957,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:7">
       <c r="A61" t="s">
         <v>50</v>
       </c>
@@ -2969,7 +2980,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:7">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -2992,7 +3003,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:7">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -3015,7 +3026,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:7">
       <c r="A64" t="s">
         <v>52</v>
       </c>
@@ -3038,7 +3049,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:7">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -3061,7 +3072,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:7">
       <c r="A66" t="s">
         <v>52</v>
       </c>
@@ -3084,7 +3095,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7">
       <c r="A67" t="s">
         <v>53</v>
       </c>
@@ -3107,7 +3118,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:7">
       <c r="A68" t="s">
         <v>52</v>
       </c>
@@ -3130,7 +3141,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:7">
       <c r="A69" t="s">
         <v>52</v>
       </c>
@@ -3153,7 +3164,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:7">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -3176,7 +3187,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:7">
       <c r="A71" t="s">
         <v>52</v>
       </c>
@@ -3199,7 +3210,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:7">
       <c r="A72" t="s">
         <v>51</v>
       </c>
@@ -3222,7 +3233,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:7">
       <c r="A73" t="s">
         <v>53</v>
       </c>
@@ -3245,7 +3256,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:7">
       <c r="A74" t="s">
         <v>53</v>
       </c>
@@ -3268,7 +3279,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:7">
       <c r="A75" t="s">
         <v>53</v>
       </c>
@@ -3291,7 +3302,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:7">
       <c r="A76" t="s">
         <v>53</v>
       </c>
@@ -3314,7 +3325,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:7">
       <c r="A77" t="s">
         <v>54</v>
       </c>
@@ -3337,7 +3348,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:7">
       <c r="A78" t="s">
         <v>54</v>
       </c>
@@ -3360,7 +3371,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7">
       <c r="A79" t="s">
         <v>55</v>
       </c>
@@ -3383,7 +3394,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7">
       <c r="A80" t="s">
         <v>54</v>
       </c>
@@ -3406,7 +3417,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7">
       <c r="A81" t="s">
         <v>56</v>
       </c>
@@ -3429,7 +3440,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7">
       <c r="A82" t="s">
         <v>54</v>
       </c>
@@ -3452,7 +3463,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7">
       <c r="A83" t="s">
         <v>56</v>
       </c>
@@ -3475,7 +3486,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7">
       <c r="A84" t="s">
         <v>55</v>
       </c>
@@ -3498,7 +3509,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7">
       <c r="A85" t="s">
         <v>49</v>
       </c>
@@ -3521,7 +3532,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7">
       <c r="A86" t="s">
         <v>54</v>
       </c>
@@ -3544,7 +3555,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:7">
       <c r="A87" t="s">
         <v>57</v>
       </c>
@@ -3567,7 +3578,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7">
       <c r="A88" t="s">
         <v>58</v>
       </c>
@@ -3590,7 +3601,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7">
       <c r="A89" t="s">
         <v>57</v>
       </c>
@@ -3613,7 +3624,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7">
       <c r="A90" t="s">
         <v>61</v>
       </c>
@@ -3636,7 +3647,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7">
       <c r="A91" t="s">
         <v>62</v>
       </c>
@@ -3659,7 +3670,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7">
       <c r="A92" t="s">
         <v>62</v>
       </c>
@@ -3682,7 +3693,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7">
       <c r="A93" t="s">
         <v>62</v>
       </c>
@@ -3705,7 +3716,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7">
       <c r="A94" t="s">
         <v>62</v>
       </c>
@@ -3728,7 +3739,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7">
       <c r="A95" t="s">
         <v>62</v>
       </c>
@@ -3751,7 +3762,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7">
       <c r="A96" t="s">
         <v>62</v>
       </c>
@@ -3774,7 +3785,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7">
       <c r="A97" t="s">
         <v>63</v>
       </c>
@@ -3797,7 +3808,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7">
       <c r="A98" t="s">
         <v>64</v>
       </c>
@@ -3820,7 +3831,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7">
       <c r="A99" t="s">
         <v>65</v>
       </c>
@@ -3843,7 +3854,7 @@
         <v>42667</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7">
       <c r="A100" t="s">
         <v>66</v>
       </c>
@@ -3866,7 +3877,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7">
       <c r="A101" t="s">
         <v>66</v>
       </c>
@@ -3889,7 +3900,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7">
       <c r="A102" t="s">
         <v>66</v>
       </c>
@@ -3912,7 +3923,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7">
       <c r="A103" t="s">
         <v>66</v>
       </c>
@@ -3935,7 +3946,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7">
       <c r="A104" t="s">
         <v>66</v>
       </c>
@@ -3958,7 +3969,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7">
       <c r="A105" t="s">
         <v>65</v>
       </c>
@@ -3981,7 +3992,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:7">
       <c r="A106" t="s">
         <v>67</v>
       </c>
@@ -4004,7 +4015,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7">
       <c r="A107" t="s">
         <v>68</v>
       </c>
@@ -4027,7 +4038,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7">
       <c r="A108" t="s">
         <v>69</v>
       </c>
@@ -4050,7 +4061,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7">
       <c r="A109" t="s">
         <v>70</v>
       </c>
@@ -4073,7 +4084,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7">
       <c r="A110" t="s">
         <v>69</v>
       </c>
@@ -4096,7 +4107,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7">
       <c r="A111" t="s">
         <v>69</v>
       </c>
@@ -4119,7 +4130,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7">
       <c r="A112" t="s">
         <v>62</v>
       </c>
@@ -4142,7 +4153,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7">
       <c r="A113" t="s">
         <v>66</v>
       </c>
@@ -4165,7 +4176,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7">
       <c r="A114" t="s">
         <v>68</v>
       </c>
@@ -4188,7 +4199,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7">
       <c r="A115" t="s">
         <v>66</v>
       </c>
@@ -4211,7 +4222,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7">
       <c r="A116" t="s">
         <v>63</v>
       </c>
@@ -4234,7 +4245,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7">
       <c r="A117" t="s">
         <v>69</v>
       </c>
@@ -4257,7 +4268,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7">
       <c r="A118" t="s">
         <v>66</v>
       </c>
@@ -4280,7 +4291,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7">
       <c r="A119" t="s">
         <v>69</v>
       </c>
@@ -4303,7 +4314,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7">
       <c r="A120" t="s">
         <v>68</v>
       </c>
@@ -4326,7 +4337,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7">
       <c r="A121" t="s">
         <v>69</v>
       </c>
@@ -4349,7 +4360,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7">
       <c r="A122" t="s">
         <v>66</v>
       </c>
@@ -4372,7 +4383,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7">
       <c r="A123" t="s">
         <v>69</v>
       </c>
@@ -4395,7 +4406,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7">
       <c r="A124" t="s">
         <v>66</v>
       </c>
@@ -4418,7 +4429,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7">
       <c r="A125" t="s">
         <v>69</v>
       </c>
@@ -4441,7 +4452,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7">
       <c r="A126" t="s">
         <v>69</v>
       </c>
@@ -4464,7 +4475,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7">
       <c r="A127" t="s">
         <v>71</v>
       </c>
@@ -4487,7 +4498,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7">
       <c r="A128" t="s">
         <v>72</v>
       </c>
@@ -4510,7 +4521,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:7">
       <c r="A129" t="s">
         <v>73</v>
       </c>
@@ -4533,7 +4544,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:7">
       <c r="A130" t="s">
         <v>74</v>
       </c>
@@ -4556,7 +4567,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:7">
       <c r="A131" t="s">
         <v>75</v>
       </c>
@@ -4579,7 +4590,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:7">
       <c r="A132" t="s">
         <v>73</v>
       </c>
@@ -4602,7 +4613,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:7">
       <c r="A133" t="s">
         <v>75</v>
       </c>
@@ -4625,7 +4636,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:7">
       <c r="A134" t="s">
         <v>73</v>
       </c>
@@ -4648,7 +4659,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:7">
       <c r="A135" t="s">
         <v>75</v>
       </c>
@@ -4671,7 +4682,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:7">
       <c r="A136" t="s">
         <v>73</v>
       </c>
@@ -4694,7 +4705,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:7">
       <c r="A137" t="s">
         <v>76</v>
       </c>
@@ -4717,7 +4728,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:7">
       <c r="A138" t="s">
         <v>76</v>
       </c>
@@ -4740,7 +4751,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:7">
       <c r="A139" t="s">
         <v>74</v>
       </c>
@@ -4763,7 +4774,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:7">
       <c r="A140" t="s">
         <v>77</v>
       </c>
@@ -4786,7 +4797,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:7">
       <c r="A141" t="s">
         <v>78</v>
       </c>
@@ -4809,7 +4820,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:7">
       <c r="A142" t="s">
         <v>77</v>
       </c>
@@ -4832,7 +4843,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:7">
       <c r="A143" t="s">
         <v>75</v>
       </c>
@@ -4855,7 +4866,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:7">
       <c r="A144" t="s">
         <v>79</v>
       </c>
@@ -4878,7 +4889,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:7">
       <c r="A145" t="s">
         <v>77</v>
       </c>
@@ -4901,7 +4912,7 @@
         <v>42674</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:7">
       <c r="A146" t="s">
         <v>77</v>
       </c>
@@ -4924,8 +4935,60 @@
         <v>42674</v>
       </c>
     </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>81</v>
+      </c>
+      <c r="B147" t="s">
+        <v>12</v>
+      </c>
+      <c r="C147" t="s">
+        <v>59</v>
+      </c>
+      <c r="D147" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E147" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G147" s="1">
+        <v>42678</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>81</v>
+      </c>
+      <c r="B148" t="s">
+        <v>12</v>
+      </c>
+      <c r="C148" t="s">
+        <v>59</v>
+      </c>
+      <c r="D148" s="1">
+        <v>42341</v>
+      </c>
+      <c r="E148" s="1">
+        <v>42418</v>
+      </c>
+      <c r="F148" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G148" s="1">
+        <v>42678</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:H1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/input/Exp.Individs.xlsx
+++ b/input/Exp.Individs.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catchamberlain/Documents/git/springfreeze/input/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="11540" yWindow="2540" windowWidth="25600" windowHeight="14240" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,18 +21,18 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="230">
   <si>
     <t>Species</t>
   </si>
@@ -273,6 +278,450 @@
   </si>
   <si>
     <t>VIBCAS09_WM</t>
+  </si>
+  <si>
+    <t>ACEPEN_W01</t>
+  </si>
+  <si>
+    <t>ACEPEN_W02</t>
+  </si>
+  <si>
+    <t>ACEPEN_W03</t>
+  </si>
+  <si>
+    <t>ACEPEN_W04</t>
+  </si>
+  <si>
+    <t>ACEPEN_W05</t>
+  </si>
+  <si>
+    <t>ACEPEN_W06</t>
+  </si>
+  <si>
+    <t>ACEPEN_W07</t>
+  </si>
+  <si>
+    <t>ACEPEN_W08</t>
+  </si>
+  <si>
+    <t>ACEPEN_W09</t>
+  </si>
+  <si>
+    <t>ACEPEN_W10</t>
+  </si>
+  <si>
+    <t>ACEPEN_W11</t>
+  </si>
+  <si>
+    <t>ACEPEN_W12</t>
+  </si>
+  <si>
+    <t>ACEPEN_H13</t>
+  </si>
+  <si>
+    <t>ACEPEN_H14</t>
+  </si>
+  <si>
+    <t>ACEPEN_H15</t>
+  </si>
+  <si>
+    <t>TX</t>
+  </si>
+  <si>
+    <t>ALNINC_H01</t>
+  </si>
+  <si>
+    <t>ALNINC_W02</t>
+  </si>
+  <si>
+    <t>ALNINC_W03</t>
+  </si>
+  <si>
+    <t>ALNINC_W04</t>
+  </si>
+  <si>
+    <t>ALNINC_W05</t>
+  </si>
+  <si>
+    <t>ALNINC_W06</t>
+  </si>
+  <si>
+    <t>ALNINC_H07</t>
+  </si>
+  <si>
+    <t>ALNINC_H08</t>
+  </si>
+  <si>
+    <t>ALNINC_W09</t>
+  </si>
+  <si>
+    <t>ALNINC_W10</t>
+  </si>
+  <si>
+    <t>ALNINC_W11</t>
+  </si>
+  <si>
+    <t>ALNINC_W12</t>
+  </si>
+  <si>
+    <t>ALNINC_H13</t>
+  </si>
+  <si>
+    <t>ALNINC_H14</t>
+  </si>
+  <si>
+    <t>ALNINC_S15</t>
+  </si>
+  <si>
+    <t>ALNINC_S16</t>
+  </si>
+  <si>
+    <t>ALNINC_S17</t>
+  </si>
+  <si>
+    <t>ALNINC_H19</t>
+  </si>
+  <si>
+    <t>ALNINC_H18</t>
+  </si>
+  <si>
+    <t>ALNINC_G20</t>
+  </si>
+  <si>
+    <t>ALNINC_G21</t>
+  </si>
+  <si>
+    <t>ALNINC_G22</t>
+  </si>
+  <si>
+    <t>ALNINC_G23</t>
+  </si>
+  <si>
+    <t>ALNINC_G24</t>
+  </si>
+  <si>
+    <t>ALNINC_G25</t>
+  </si>
+  <si>
+    <t>ALNINC_G26</t>
+  </si>
+  <si>
+    <t>ALNINC_G27</t>
+  </si>
+  <si>
+    <t>ALNINC_G28</t>
+  </si>
+  <si>
+    <t>ALNINC_S29</t>
+  </si>
+  <si>
+    <t>ALNINC_S30</t>
+  </si>
+  <si>
+    <t>ALNINC_S31</t>
+  </si>
+  <si>
+    <t>ALNINC_S32</t>
+  </si>
+  <si>
+    <t>ALNINC_S33</t>
+  </si>
+  <si>
+    <t>ALNINC_S34</t>
+  </si>
+  <si>
+    <t>ALNINC_H35</t>
+  </si>
+  <si>
+    <t>ALNINC_H36</t>
+  </si>
+  <si>
+    <t>BETALL_S01</t>
+  </si>
+  <si>
+    <t>BETALL_S02</t>
+  </si>
+  <si>
+    <t>BETALL_W03</t>
+  </si>
+  <si>
+    <t>BETALL_W04</t>
+  </si>
+  <si>
+    <t>BETALL_W05</t>
+  </si>
+  <si>
+    <t>BETALL_W06</t>
+  </si>
+  <si>
+    <t>BETALL_S07</t>
+  </si>
+  <si>
+    <t>BETALL_S08</t>
+  </si>
+  <si>
+    <t>BETALL_S09</t>
+  </si>
+  <si>
+    <t>BETALL_S10</t>
+  </si>
+  <si>
+    <t>BETALL_W11</t>
+  </si>
+  <si>
+    <t>BETALL_W12</t>
+  </si>
+  <si>
+    <t>BETALL_G13</t>
+  </si>
+  <si>
+    <t>BETALL_G14</t>
+  </si>
+  <si>
+    <t>BETALL_G15</t>
+  </si>
+  <si>
+    <t>BETALL_G16</t>
+  </si>
+  <si>
+    <t>BETALL_G17</t>
+  </si>
+  <si>
+    <t>BETALL_G18</t>
+  </si>
+  <si>
+    <t>BETPOP_H01</t>
+  </si>
+  <si>
+    <t>BETPOP_H02</t>
+  </si>
+  <si>
+    <t>BETPOP_H03</t>
+  </si>
+  <si>
+    <t>BETPOP_H04</t>
+  </si>
+  <si>
+    <t>BETPOP_H05</t>
+  </si>
+  <si>
+    <t>BETPOP_H06</t>
+  </si>
+  <si>
+    <t>BETPOP_G07</t>
+  </si>
+  <si>
+    <t>BETPOP_H08</t>
+  </si>
+  <si>
+    <t>BETPOP_H09</t>
+  </si>
+  <si>
+    <t>BETPOP_H10</t>
+  </si>
+  <si>
+    <t>BETPOP_G11</t>
+  </si>
+  <si>
+    <t>BETPOP_G12</t>
+  </si>
+  <si>
+    <t>BETPOP_G13</t>
+  </si>
+  <si>
+    <t>BETPOP_G14</t>
+  </si>
+  <si>
+    <t>BETPOP_G15</t>
+  </si>
+  <si>
+    <t>BETPOP_G16</t>
+  </si>
+  <si>
+    <t>BETPOP_G17</t>
+  </si>
+  <si>
+    <t>BETPOP_G18</t>
+  </si>
+  <si>
+    <t>BETPOP_G19</t>
+  </si>
+  <si>
+    <t>BETPOP_G20</t>
+  </si>
+  <si>
+    <t>BETPOP_W21</t>
+  </si>
+  <si>
+    <t>BETPOP_W22</t>
+  </si>
+  <si>
+    <t>BETPOP_W23</t>
+  </si>
+  <si>
+    <t>BETPOP_W24</t>
+  </si>
+  <si>
+    <t>CORCOR_W01</t>
+  </si>
+  <si>
+    <t>CORCOR_W02</t>
+  </si>
+  <si>
+    <t>CORCOR_W03</t>
+  </si>
+  <si>
+    <t>PRUPEN_S01</t>
+  </si>
+  <si>
+    <t>PRUPEN_W02</t>
+  </si>
+  <si>
+    <t>PRUPEN_W03</t>
+  </si>
+  <si>
+    <t>PRUPEN_S04</t>
+  </si>
+  <si>
+    <t>PRUPEN_S05</t>
+  </si>
+  <si>
+    <t>PRUPEN_S06</t>
+  </si>
+  <si>
+    <t>PRUPEN_S07</t>
+  </si>
+  <si>
+    <t>PRUPEN_S08</t>
+  </si>
+  <si>
+    <t>PRUPEN_S09</t>
+  </si>
+  <si>
+    <t>PRUPEN_S10</t>
+  </si>
+  <si>
+    <t>PRUPEN_S11</t>
+  </si>
+  <si>
+    <t>PRUPEN_S12</t>
+  </si>
+  <si>
+    <t>PRUPEN_G13</t>
+  </si>
+  <si>
+    <t>PRUPEN_S14</t>
+  </si>
+  <si>
+    <t>PRUPEN_S15</t>
+  </si>
+  <si>
+    <t>VIBCAS_S01</t>
+  </si>
+  <si>
+    <t>VIBCAS_S02</t>
+  </si>
+  <si>
+    <t>VIBCAS_S03</t>
+  </si>
+  <si>
+    <t>VIBCAS_S04</t>
+  </si>
+  <si>
+    <t>VIBCAS_S05</t>
+  </si>
+  <si>
+    <t>VIBCAS_S06</t>
+  </si>
+  <si>
+    <t>VIBCAS_S07</t>
+  </si>
+  <si>
+    <t>VIBCAS_S08</t>
+  </si>
+  <si>
+    <t>VIBCAS_G09</t>
+  </si>
+  <si>
+    <t>VIBCAS_G10</t>
+  </si>
+  <si>
+    <t>VIBCAS_G11</t>
+  </si>
+  <si>
+    <t>VIBCAS_G12</t>
+  </si>
+  <si>
+    <t>VIBCAS_G13</t>
+  </si>
+  <si>
+    <t>VIBCAS_S14</t>
+  </si>
+  <si>
+    <t>VIBCAS_S15</t>
+  </si>
+  <si>
+    <t>VIBCAS_W16</t>
+  </si>
+  <si>
+    <t>VIBCAS_W17</t>
+  </si>
+  <si>
+    <t>VIBCAS_W18</t>
+  </si>
+  <si>
+    <t>VIBCAS_W19</t>
+  </si>
+  <si>
+    <t>VIBCAS_W20</t>
+  </si>
+  <si>
+    <t>VIBCAS_W21</t>
+  </si>
+  <si>
+    <t>VIBCAS_W22</t>
+  </si>
+  <si>
+    <t>VIBCAS_W23</t>
+  </si>
+  <si>
+    <t>VIBCAS_W24</t>
+  </si>
+  <si>
+    <t>VIBCAS_W25</t>
+  </si>
+  <si>
+    <t>VIBCAS_S26</t>
+  </si>
+  <si>
+    <t>VIBCAS_S27</t>
+  </si>
+  <si>
+    <t>VIBCAS_W28</t>
+  </si>
+  <si>
+    <t>VIBCAS_W29</t>
+  </si>
+  <si>
+    <t>VIBCAS_G30</t>
+  </si>
+  <si>
+    <t>VIBCAS_G31</t>
+  </si>
+  <si>
+    <t>VIBCAS_G32</t>
+  </si>
+  <si>
+    <t>VIBCAS_G33</t>
+  </si>
+  <si>
+    <t>VIBCAS_G34</t>
+  </si>
+  <si>
+    <t>VIBCAS_G35</t>
+  </si>
+  <si>
+    <t>VIBCAS_G36</t>
   </si>
 </sst>
 </file>
@@ -734,7 +1183,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -751,9 +1200,9 @@
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -794,7 +1243,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -829,7 +1278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -864,7 +1313,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -902,7 +1351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -937,7 +1386,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -972,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1007,7 +1456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1045,7 +1494,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -1074,7 +1523,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -1103,7 +1552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -1132,7 +1581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1161,7 +1610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -1187,7 +1636,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -1216,7 +1665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -1245,7 +1694,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -1274,7 +1723,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -1303,7 +1752,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -1329,7 +1778,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1358,7 +1807,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1387,7 +1836,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>7</v>
       </c>
@@ -1398,7 +1847,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1412,7 +1861,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -1423,7 +1872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -1437,7 +1886,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -1451,7 +1900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1465,7 +1914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>8</v>
       </c>
@@ -1476,7 +1925,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>8</v>
       </c>
@@ -1490,7 +1939,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>8</v>
       </c>
@@ -1504,7 +1953,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1518,7 +1967,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -1543,26 +1992,21 @@
   <printOptions gridLines="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="70" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H148"/>
+  <dimension ref="A1:I148"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B180" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B129" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A148" sqref="A148:G148"/>
+      <selection pane="bottomRight" activeCell="H149" sqref="H149"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -1574,7 +2018,7 @@
     <col min="8" max="8" width="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>26</v>
       </c>
@@ -1599,16 +2043,19 @@
       <c r="H1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="D2" s="1">
         <v>42411</v>
@@ -1622,16 +2069,19 @@
       <c r="G2" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="D3" s="1">
         <v>42411</v>
@@ -1645,16 +2095,19 @@
       <c r="G3" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
       </c>
       <c r="C4" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="D4" s="1">
         <v>42411</v>
@@ -1668,16 +2121,19 @@
       <c r="G4" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="H4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1">
-        <v>42264</v>
+        <v>42263</v>
       </c>
       <c r="D5" s="1">
         <v>42411</v>
@@ -1691,16 +2147,19 @@
       <c r="G5" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="H5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="1">
-        <v>42264</v>
+        <v>42263</v>
       </c>
       <c r="D6" s="1">
         <v>42411</v>
@@ -1714,16 +2173,19 @@
       <c r="G6" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="H6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="1">
-        <v>42264</v>
+        <v>42263</v>
       </c>
       <c r="D7" s="1">
         <v>42411</v>
@@ -1737,16 +2199,19 @@
       <c r="G7" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="H7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>42264</v>
+        <v>42263</v>
       </c>
       <c r="D8" s="1">
         <v>42411</v>
@@ -1760,16 +2225,19 @@
       <c r="G8" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="H8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
       <c r="C9" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="D9" s="1">
         <v>42411</v>
@@ -1783,16 +2251,19 @@
       <c r="G9" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="H9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="1">
-        <v>42262</v>
+        <v>42263</v>
       </c>
       <c r="D10" s="1">
         <v>42411</v>
@@ -1806,8 +2277,11 @@
       <c r="G10" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="H10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>34</v>
       </c>
@@ -1829,10 +2303,13 @@
       <c r="G11" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="H11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
@@ -1852,8 +2329,11 @@
       <c r="G12" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="H12" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1873,110 +2353,125 @@
         <v>80</v>
       </c>
       <c r="G13" s="1">
-        <v>42661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>42663</v>
+      </c>
+      <c r="H13" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>42263</v>
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>59</v>
       </c>
       <c r="D14" s="1">
-        <v>42411</v>
+        <v>42068</v>
       </c>
       <c r="E14" s="1">
-        <v>42454</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>80</v>
+        <v>42104</v>
+      </c>
+      <c r="F14" s="1">
+        <v>42185</v>
       </c>
       <c r="G14" s="1">
-        <v>42661</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>42663</v>
+      </c>
+      <c r="H14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="1">
-        <v>42263</v>
+        <v>13</v>
+      </c>
+      <c r="C15" t="s">
+        <v>59</v>
       </c>
       <c r="D15" s="1">
-        <v>42411</v>
+        <v>42068</v>
       </c>
       <c r="E15" s="1">
-        <v>42454</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>80</v>
+        <v>42104</v>
+      </c>
+      <c r="F15" s="1">
+        <v>42185</v>
       </c>
       <c r="G15" s="1">
-        <v>42661</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>42663</v>
+      </c>
+      <c r="H15" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="1">
-        <v>42263</v>
+        <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>59</v>
       </c>
       <c r="D16" s="1">
-        <v>42411</v>
+        <v>42068</v>
       </c>
       <c r="E16" s="1">
-        <v>42454</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>80</v>
+        <v>42104</v>
+      </c>
+      <c r="F16" s="1">
+        <v>42185</v>
       </c>
       <c r="G16" s="1">
-        <v>42661</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>42663</v>
+      </c>
+      <c r="H16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
-      </c>
-      <c r="C17" s="1">
-        <v>42263</v>
+        <v>13</v>
+      </c>
+      <c r="C17" t="s">
+        <v>59</v>
       </c>
       <c r="D17" s="1">
-        <v>42411</v>
+        <v>42068</v>
       </c>
       <c r="E17" s="1">
-        <v>42454</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>80</v>
+        <v>42104</v>
+      </c>
+      <c r="F17" s="1">
+        <v>42185</v>
       </c>
       <c r="G17" s="1">
-        <v>42661</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>42663</v>
+      </c>
+      <c r="H17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
         <v>12</v>
       </c>
       <c r="C18" s="1">
-        <v>42263</v>
+        <v>42262</v>
       </c>
       <c r="D18" s="1">
         <v>42411</v>
@@ -1990,16 +2485,19 @@
       <c r="G18" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
         <v>12</v>
       </c>
       <c r="C19" s="1">
-        <v>42263</v>
+        <v>42262</v>
       </c>
       <c r="D19" s="1">
         <v>42411</v>
@@ -2013,16 +2511,19 @@
       <c r="G19" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
         <v>12</v>
       </c>
       <c r="C20" s="1">
-        <v>42263</v>
+        <v>42262</v>
       </c>
       <c r="D20" s="1">
         <v>42411</v>
@@ -2036,16 +2537,19 @@
       <c r="G20" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>12</v>
       </c>
       <c r="C21" s="1">
-        <v>42263</v>
+        <v>42262</v>
       </c>
       <c r="D21" s="1">
         <v>42411</v>
@@ -2059,16 +2563,19 @@
       <c r="G21" s="1">
         <v>42661</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
         <v>12</v>
       </c>
       <c r="C22" s="1">
-        <v>42263</v>
+        <v>42262</v>
       </c>
       <c r="D22" s="1">
         <v>42411</v>
@@ -2080,12 +2587,15 @@
         <v>80</v>
       </c>
       <c r="G22" s="1">
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>42661</v>
+      </c>
+      <c r="H22" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -2105,10 +2615,13 @@
       <c r="G23" s="1">
         <v>42663</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -2128,102 +2641,117 @@
       <c r="G24" s="1">
         <v>42663</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C25" s="1">
+        <v>42264</v>
       </c>
       <c r="D25" s="1">
-        <v>42068</v>
+        <v>42411</v>
       </c>
       <c r="E25" s="1">
-        <v>42104</v>
-      </c>
-      <c r="F25" s="1">
-        <v>42185</v>
+        <v>42454</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G25" s="1">
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>42661</v>
+      </c>
+      <c r="H25" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C26" s="1">
+        <v>42264</v>
       </c>
       <c r="D26" s="1">
-        <v>42068</v>
+        <v>42411</v>
       </c>
       <c r="E26" s="1">
-        <v>42104</v>
-      </c>
-      <c r="F26" s="1">
-        <v>42185</v>
+        <v>42454</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G26" s="1">
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>42661</v>
+      </c>
+      <c r="H26" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C27" s="1">
+        <v>42264</v>
       </c>
       <c r="D27" s="1">
-        <v>42068</v>
+        <v>42411</v>
       </c>
       <c r="E27" s="1">
-        <v>42104</v>
-      </c>
-      <c r="F27" s="1">
-        <v>42185</v>
+        <v>42454</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G27" s="1">
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>42661</v>
+      </c>
+      <c r="H27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C28" s="1">
+        <v>42264</v>
       </c>
       <c r="D28" s="1">
-        <v>42068</v>
+        <v>42411</v>
       </c>
       <c r="E28" s="1">
-        <v>42104</v>
-      </c>
-      <c r="F28" s="1">
-        <v>42185</v>
+        <v>42454</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G28" s="1">
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>42661</v>
+      </c>
+      <c r="H28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
         <v>13</v>
@@ -2243,10 +2771,13 @@
       <c r="G29" s="1">
         <v>42663</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B30" t="s">
         <v>13</v>
@@ -2266,10 +2797,13 @@
       <c r="G30" s="1">
         <v>42663</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B31" t="s">
         <v>13</v>
@@ -2289,10 +2823,13 @@
       <c r="G31" s="1">
         <v>42663</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>13</v>
@@ -2312,10 +2849,13 @@
       <c r="G32" s="1">
         <v>42663</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -2335,10 +2875,13 @@
       <c r="G33" s="1">
         <v>42663</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
@@ -2358,10 +2901,13 @@
       <c r="G34" s="1">
         <v>42663</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -2381,217 +2927,247 @@
       <c r="G35" s="1">
         <v>42663</v>
       </c>
-    </row>
-    <row r="36" spans="1:7">
+      <c r="H35" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C36" s="1">
+        <v>42316</v>
       </c>
       <c r="D36" s="1">
-        <v>42068</v>
+        <v>42474</v>
       </c>
       <c r="E36" s="1">
-        <v>42104</v>
-      </c>
-      <c r="F36" s="1">
-        <v>42185</v>
+        <v>42513</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G36" s="1">
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H36" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C37" s="1">
+        <v>42316</v>
       </c>
       <c r="D37" s="1">
-        <v>42068</v>
+        <v>42474</v>
       </c>
       <c r="E37" s="1">
-        <v>42104</v>
-      </c>
-      <c r="F37" s="1">
-        <v>42185</v>
+        <v>42513</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G37" s="1">
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="B38" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C38" s="1">
+        <v>42316</v>
       </c>
       <c r="D38" s="1">
-        <v>42068</v>
+        <v>42474</v>
       </c>
       <c r="E38" s="1">
-        <v>42104</v>
-      </c>
-      <c r="F38" s="1">
-        <v>42185</v>
+        <v>42513</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G38" s="1">
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H38" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D39" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E39" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="1">
+        <v>42674</v>
+      </c>
+      <c r="H39" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D40" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E40" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="1">
+        <v>42674</v>
+      </c>
+      <c r="H40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D41" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E41" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G41" s="1">
+        <v>42674</v>
+      </c>
+      <c r="H41" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>69</v>
+      </c>
+      <c r="B42" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D42" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E42" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G42" s="1">
+        <v>42674</v>
+      </c>
+      <c r="H42" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" t="s">
+        <v>12</v>
+      </c>
+      <c r="C43" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D43" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E43" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G43" s="1">
+        <v>42674</v>
+      </c>
+      <c r="H43" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>69</v>
+      </c>
+      <c r="B44" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1">
+        <v>42316</v>
+      </c>
+      <c r="D44" s="1">
+        <v>42474</v>
+      </c>
+      <c r="E44" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G44" s="1">
+        <v>42674</v>
+      </c>
+      <c r="H44" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>37</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
-      </c>
-      <c r="C39" t="s">
-        <v>59</v>
-      </c>
-      <c r="D39" s="1">
-        <v>42068</v>
-      </c>
-      <c r="E39" s="1">
-        <v>42104</v>
-      </c>
-      <c r="F39" s="1">
-        <v>42185</v>
-      </c>
-      <c r="G39" s="1">
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
-        <v>43</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
-      </c>
-      <c r="C40" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="1">
-        <v>42068</v>
-      </c>
-      <c r="E40" s="1">
-        <v>42104</v>
-      </c>
-      <c r="F40" s="1">
-        <v>42185</v>
-      </c>
-      <c r="G40" s="1">
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
-        <v>44</v>
-      </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41" t="s">
-        <v>59</v>
-      </c>
-      <c r="D41" s="1">
-        <v>42068</v>
-      </c>
-      <c r="E41" s="1">
-        <v>42104</v>
-      </c>
-      <c r="F41" s="1">
-        <v>42185</v>
-      </c>
-      <c r="G41" s="1">
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
-        <v>44</v>
-      </c>
-      <c r="B42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C42" t="s">
-        <v>59</v>
-      </c>
-      <c r="D42" s="1">
-        <v>42068</v>
-      </c>
-      <c r="E42" s="1">
-        <v>42104</v>
-      </c>
-      <c r="F42" s="1">
-        <v>42185</v>
-      </c>
-      <c r="G42" s="1">
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
-        <v>44</v>
-      </c>
-      <c r="B43" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" t="s">
-        <v>59</v>
-      </c>
-      <c r="D43" s="1">
-        <v>42068</v>
-      </c>
-      <c r="E43" s="1">
-        <v>42104</v>
-      </c>
-      <c r="F43" s="1">
-        <v>42185</v>
-      </c>
-      <c r="G43" s="1">
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" t="s">
-        <v>59</v>
-      </c>
-      <c r="D44" s="1">
-        <v>42012</v>
-      </c>
-      <c r="E44" s="1">
-        <v>42066</v>
-      </c>
-      <c r="F44" s="1">
-        <v>42185</v>
-      </c>
-      <c r="G44" s="1">
-        <v>42663</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
-        <v>46</v>
       </c>
       <c r="B45" t="s">
         <v>13</v>
@@ -2600,10 +3176,10 @@
         <v>59</v>
       </c>
       <c r="D45" s="1">
-        <v>42012</v>
+        <v>42068</v>
       </c>
       <c r="E45" s="1">
-        <v>42066</v>
+        <v>42104</v>
       </c>
       <c r="F45" s="1">
         <v>42185</v>
@@ -2611,10 +3187,13 @@
       <c r="G45" s="1">
         <v>42663</v>
       </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="H45" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B46" t="s">
         <v>13</v>
@@ -2623,10 +3202,10 @@
         <v>59</v>
       </c>
       <c r="D46" s="1">
-        <v>42012</v>
+        <v>42068</v>
       </c>
       <c r="E46" s="1">
-        <v>42066</v>
+        <v>42104</v>
       </c>
       <c r="F46" s="1">
         <v>42185</v>
@@ -2634,10 +3213,13 @@
       <c r="G46" s="1">
         <v>42663</v>
       </c>
-    </row>
-    <row r="47" spans="1:7">
+      <c r="H46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B47" t="s">
         <v>13</v>
@@ -2646,10 +3228,10 @@
         <v>59</v>
       </c>
       <c r="D47" s="1">
-        <v>42012</v>
+        <v>42068</v>
       </c>
       <c r="E47" s="1">
-        <v>42066</v>
+        <v>42104</v>
       </c>
       <c r="F47" s="1">
         <v>42185</v>
@@ -2657,10 +3239,13 @@
       <c r="G47" s="1">
         <v>42663</v>
       </c>
-    </row>
-    <row r="48" spans="1:7">
+      <c r="H47" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B48" t="s">
         <v>13</v>
@@ -2669,21 +3254,24 @@
         <v>59</v>
       </c>
       <c r="D48" s="1">
-        <v>42012</v>
+        <v>42068</v>
       </c>
       <c r="E48" s="1">
-        <v>42066</v>
+        <v>42104</v>
       </c>
       <c r="F48" s="1">
         <v>42185</v>
       </c>
       <c r="G48" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>42663</v>
+      </c>
+      <c r="H48" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B49" t="s">
         <v>13</v>
@@ -2692,21 +3280,24 @@
         <v>59</v>
       </c>
       <c r="D49" s="1">
-        <v>42012</v>
+        <v>42068</v>
       </c>
       <c r="E49" s="1">
-        <v>42066</v>
+        <v>42104</v>
       </c>
       <c r="F49" s="1">
         <v>42185</v>
       </c>
       <c r="G49" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>42663</v>
+      </c>
+      <c r="H49" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="B50" t="s">
         <v>13</v>
@@ -2715,21 +3306,24 @@
         <v>59</v>
       </c>
       <c r="D50" s="1">
-        <v>42012</v>
+        <v>42068</v>
       </c>
       <c r="E50" s="1">
-        <v>42066</v>
+        <v>42104</v>
       </c>
       <c r="F50" s="1">
         <v>42185</v>
       </c>
       <c r="G50" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>42663</v>
+      </c>
+      <c r="H50" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B51" t="s">
         <v>13</v>
@@ -2738,21 +3332,24 @@
         <v>59</v>
       </c>
       <c r="D51" s="1">
-        <v>42012</v>
+        <v>42068</v>
       </c>
       <c r="E51" s="1">
-        <v>42066</v>
+        <v>42104</v>
       </c>
       <c r="F51" s="1">
         <v>42185</v>
       </c>
       <c r="G51" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>42663</v>
+      </c>
+      <c r="H51" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B52" t="s">
         <v>13</v>
@@ -2761,343 +3358,388 @@
         <v>59</v>
       </c>
       <c r="D52" s="1">
-        <v>42012</v>
+        <v>42068</v>
       </c>
       <c r="E52" s="1">
-        <v>42066</v>
+        <v>42104</v>
       </c>
       <c r="F52" s="1">
         <v>42185</v>
       </c>
       <c r="G52" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>42663</v>
+      </c>
+      <c r="H52" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B53" t="s">
-        <v>13</v>
-      </c>
-      <c r="C53" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C53" s="1">
+        <v>42256</v>
       </c>
       <c r="D53" s="1">
-        <v>41967</v>
+        <v>42412</v>
       </c>
       <c r="E53" s="1">
-        <v>42065</v>
-      </c>
-      <c r="F53" s="1">
-        <v>42185</v>
+        <v>42488</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G53" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H53" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>79</v>
       </c>
       <c r="B54" t="s">
-        <v>13</v>
-      </c>
-      <c r="C54" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C54" s="1">
+        <v>42256</v>
       </c>
       <c r="D54" s="1">
-        <v>41967</v>
+        <v>42412</v>
       </c>
       <c r="E54" s="1">
-        <v>42065</v>
-      </c>
-      <c r="F54" s="1">
-        <v>42185</v>
+        <v>42454</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G54" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H54" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
-      </c>
-      <c r="C55" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C55" s="1">
+        <v>42317</v>
       </c>
       <c r="D55" s="1">
-        <v>41967</v>
+        <v>42453</v>
       </c>
       <c r="E55" s="1">
-        <v>42065</v>
-      </c>
-      <c r="F55" s="1">
-        <v>42185</v>
+        <v>42474</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G55" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H55" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>50</v>
+        <v>77</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
-      </c>
-      <c r="C56" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C56" s="1">
+        <v>42256</v>
       </c>
       <c r="D56" s="1">
-        <v>41967</v>
+        <v>42453</v>
       </c>
       <c r="E56" s="1">
-        <v>42065</v>
-      </c>
-      <c r="F56" s="1">
-        <v>42185</v>
+        <v>42474</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G56" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H56" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B57" t="s">
-        <v>13</v>
-      </c>
-      <c r="C57" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C57" s="1">
+        <v>42248</v>
       </c>
       <c r="D57" s="1">
-        <v>41967</v>
+        <v>42453</v>
       </c>
       <c r="E57" s="1">
-        <v>42065</v>
-      </c>
-      <c r="F57" s="1">
-        <v>42185</v>
+        <v>42488</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G57" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H57" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="B58" t="s">
-        <v>13</v>
-      </c>
-      <c r="C58" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C58" s="1">
+        <v>42248</v>
       </c>
       <c r="D58" s="1">
-        <v>41967</v>
+        <v>42474</v>
       </c>
       <c r="E58" s="1">
-        <v>42065</v>
-      </c>
-      <c r="F58" s="1">
-        <v>42185</v>
+        <v>42488</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G58" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H58" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C59" s="1">
+        <v>42256</v>
       </c>
       <c r="D59" s="1">
-        <v>41967</v>
+        <v>42412</v>
       </c>
       <c r="E59" s="1">
-        <v>42065</v>
-      </c>
-      <c r="F59" s="1">
-        <v>42185</v>
+        <v>42488</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G59" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H59" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="B60" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C60" s="1">
+        <v>42256</v>
       </c>
       <c r="D60" s="1">
-        <v>41967</v>
+        <v>42412</v>
       </c>
       <c r="E60" s="1">
-        <v>42065</v>
-      </c>
-      <c r="F60" s="1">
-        <v>42185</v>
+        <v>42454</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G60" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61" t="s">
-        <v>59</v>
+        <v>12</v>
+      </c>
+      <c r="C61" s="1">
+        <v>42256</v>
       </c>
       <c r="D61" s="1">
-        <v>41967</v>
+        <v>42412</v>
       </c>
       <c r="E61" s="1">
-        <v>42065</v>
-      </c>
-      <c r="F61" s="1">
-        <v>42185</v>
+        <v>42454</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>80</v>
       </c>
       <c r="G61" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H61" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="B62" t="s">
         <v>12</v>
       </c>
       <c r="C62" s="1">
-        <v>42257</v>
+        <v>42256</v>
       </c>
       <c r="D62" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E62" s="1">
-        <v>42418</v>
+        <v>42454</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G62" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H62" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>51</v>
+        <v>74</v>
       </c>
       <c r="B63" t="s">
         <v>12</v>
       </c>
       <c r="C63" s="1">
-        <v>42257</v>
+        <v>42317</v>
       </c>
       <c r="D63" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E63" s="1">
-        <v>42418</v>
+        <v>42488</v>
       </c>
       <c r="F63" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G63" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H63" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
         <v>12</v>
       </c>
       <c r="C64" s="1">
-        <v>42263</v>
+        <v>42317</v>
       </c>
       <c r="D64" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E64" s="1">
-        <v>42418</v>
+        <v>42488</v>
       </c>
       <c r="F64" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G64" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H64" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
         <v>12</v>
       </c>
       <c r="C65" s="1">
-        <v>42257</v>
+        <v>42256</v>
       </c>
       <c r="D65" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E65" s="1">
-        <v>42418</v>
+        <v>42454</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G65" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B66" t="s">
         <v>12</v>
       </c>
       <c r="C66" s="1">
-        <v>42263</v>
+        <v>42256</v>
       </c>
       <c r="D66" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E66" s="1">
-        <v>42418</v>
+        <v>42454</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G66" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="B67" t="s">
         <v>12</v>
@@ -3106,320 +3748,362 @@
         <v>42256</v>
       </c>
       <c r="D67" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E67" s="1">
-        <v>42418</v>
+        <v>42454</v>
       </c>
       <c r="F67" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G67" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H67" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="B68" t="s">
         <v>12</v>
       </c>
       <c r="C68" s="1">
-        <v>42263</v>
+        <v>42256</v>
       </c>
       <c r="D68" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E68" s="1">
-        <v>42418</v>
+        <v>42454</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G68" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H68" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="B69" t="s">
         <v>12</v>
       </c>
       <c r="C69" s="1">
-        <v>42263</v>
+        <v>42256</v>
       </c>
       <c r="D69" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E69" s="1">
-        <v>42418</v>
+        <v>42488</v>
       </c>
       <c r="F69" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G69" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H69" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
         <v>12</v>
       </c>
       <c r="C70" s="1">
-        <v>42257</v>
+        <v>42256</v>
       </c>
       <c r="D70" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E70" s="1">
-        <v>42418</v>
+        <v>42488</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G70" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H70" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B71" t="s">
-        <v>12</v>
-      </c>
-      <c r="C71" s="1">
-        <v>42263</v>
+        <v>13</v>
+      </c>
+      <c r="C71" t="s">
+        <v>59</v>
       </c>
       <c r="D71" s="1">
-        <v>42341</v>
+        <v>42012</v>
       </c>
       <c r="E71" s="1">
-        <v>42418</v>
-      </c>
-      <c r="F71" s="1" t="s">
-        <v>80</v>
+        <v>42066</v>
+      </c>
+      <c r="F71" s="1">
+        <v>42185</v>
       </c>
       <c r="G71" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
+        <v>42663</v>
+      </c>
+      <c r="H71" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B72" t="s">
-        <v>12</v>
-      </c>
-      <c r="C72" s="1">
-        <v>42257</v>
+        <v>13</v>
+      </c>
+      <c r="C72" t="s">
+        <v>59</v>
       </c>
       <c r="D72" s="1">
-        <v>42341</v>
+        <v>42012</v>
       </c>
       <c r="E72" s="1">
-        <v>42418</v>
-      </c>
-      <c r="F72" s="1" t="s">
-        <v>80</v>
+        <v>42066</v>
+      </c>
+      <c r="F72" s="1">
+        <v>42185</v>
       </c>
       <c r="G72" s="1">
         <v>42667</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73" s="1">
-        <v>42256</v>
+        <v>13</v>
+      </c>
+      <c r="C73" t="s">
+        <v>59</v>
       </c>
       <c r="D73" s="1">
-        <v>42341</v>
+        <v>42012</v>
       </c>
       <c r="E73" s="1">
-        <v>42418</v>
-      </c>
-      <c r="F73" s="1" t="s">
-        <v>80</v>
+        <v>42066</v>
+      </c>
+      <c r="F73" s="1">
+        <v>42185</v>
       </c>
       <c r="G73" s="1">
         <v>42667</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
-      </c>
-      <c r="C74" s="1">
-        <v>42256</v>
+        <v>13</v>
+      </c>
+      <c r="C74" t="s">
+        <v>59</v>
       </c>
       <c r="D74" s="1">
-        <v>42341</v>
+        <v>42012</v>
       </c>
       <c r="E74" s="1">
-        <v>42418</v>
-      </c>
-      <c r="F74" s="1" t="s">
-        <v>80</v>
+        <v>42066</v>
+      </c>
+      <c r="F74" s="1">
+        <v>42185</v>
       </c>
       <c r="G74" s="1">
         <v>42667</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B75" t="s">
-        <v>12</v>
-      </c>
-      <c r="C75" s="1">
-        <v>42256</v>
+        <v>13</v>
+      </c>
+      <c r="C75" t="s">
+        <v>59</v>
       </c>
       <c r="D75" s="1">
-        <v>42341</v>
+        <v>42012</v>
       </c>
       <c r="E75" s="1">
-        <v>42418</v>
-      </c>
-      <c r="F75" s="1" t="s">
-        <v>80</v>
+        <v>42066</v>
+      </c>
+      <c r="F75" s="1">
+        <v>42185</v>
       </c>
       <c r="G75" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
+        <v>42663</v>
+      </c>
+      <c r="H75" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B76" t="s">
-        <v>12</v>
-      </c>
-      <c r="C76" s="1">
-        <v>42256</v>
+        <v>13</v>
+      </c>
+      <c r="C76" t="s">
+        <v>59</v>
       </c>
       <c r="D76" s="1">
-        <v>42341</v>
+        <v>42012</v>
       </c>
       <c r="E76" s="1">
-        <v>42418</v>
-      </c>
-      <c r="F76" s="1" t="s">
-        <v>80</v>
+        <v>42066</v>
+      </c>
+      <c r="F76" s="1">
+        <v>42185</v>
       </c>
       <c r="G76" s="1">
         <v>42667</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>54</v>
+        <v>71</v>
       </c>
       <c r="B77" t="s">
         <v>12</v>
       </c>
       <c r="C77" s="1">
-        <v>42263</v>
+        <v>42257</v>
       </c>
       <c r="D77" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E77" s="1">
-        <v>42418</v>
+        <v>42527</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G77" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H77" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
-      </c>
-      <c r="C78" s="1">
-        <v>42263</v>
+        <v>13</v>
+      </c>
+      <c r="C78" t="s">
+        <v>59</v>
       </c>
       <c r="D78" s="1">
-        <v>42341</v>
+        <v>42012</v>
       </c>
       <c r="E78" s="1">
-        <v>42418</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>80</v>
+        <v>42066</v>
+      </c>
+      <c r="F78" s="1">
+        <v>42185</v>
       </c>
       <c r="G78" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7">
+        <v>42663</v>
+      </c>
+      <c r="H78" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
-      </c>
-      <c r="C79" s="1">
-        <v>42255</v>
+        <v>13</v>
+      </c>
+      <c r="C79" t="s">
+        <v>59</v>
       </c>
       <c r="D79" s="1">
-        <v>42341</v>
+        <v>42012</v>
       </c>
       <c r="E79" s="1">
-        <v>42418</v>
-      </c>
-      <c r="F79" s="1" t="s">
-        <v>80</v>
+        <v>42066</v>
+      </c>
+      <c r="F79" s="1">
+        <v>42185</v>
       </c>
       <c r="G79" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
+        <v>42663</v>
+      </c>
+      <c r="H79" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="B80" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="1">
-        <v>42263</v>
+        <v>13</v>
+      </c>
+      <c r="C80" t="s">
+        <v>59</v>
       </c>
       <c r="D80" s="1">
-        <v>42341</v>
+        <v>42012</v>
       </c>
       <c r="E80" s="1">
-        <v>42418</v>
-      </c>
-      <c r="F80" s="1" t="s">
-        <v>80</v>
+        <v>42066</v>
+      </c>
+      <c r="F80" s="1">
+        <v>42185</v>
       </c>
       <c r="G80" s="1">
         <v>42667</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B81" t="s">
         <v>12</v>
@@ -3428,44 +4112,50 @@
         <v>42257</v>
       </c>
       <c r="D81" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E81" s="1">
-        <v>42418</v>
+        <v>42527</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G81" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H81" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B82" t="s">
         <v>12</v>
       </c>
       <c r="C82" s="1">
-        <v>42263</v>
+        <v>42257</v>
       </c>
       <c r="D82" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E82" s="1">
-        <v>42418</v>
+        <v>42527</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G82" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
       <c r="B83" t="s">
         <v>12</v>
@@ -3474,159 +4164,180 @@
         <v>42257</v>
       </c>
       <c r="D83" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E83" s="1">
-        <v>42418</v>
+        <v>42527</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G83" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H83" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
         <v>12</v>
       </c>
       <c r="C84" s="1">
-        <v>42255</v>
+        <v>42257</v>
       </c>
       <c r="D84" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E84" s="1">
-        <v>42418</v>
+        <v>42527</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G84" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H84" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="B85" t="s">
         <v>12</v>
       </c>
       <c r="C85" s="1">
-        <v>42251</v>
+        <v>42257</v>
       </c>
       <c r="D85" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E85" s="1">
-        <v>42418</v>
+        <v>42527</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G85" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H85" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B86" t="s">
         <v>12</v>
       </c>
       <c r="C86" s="1">
-        <v>42263</v>
+        <v>42257</v>
       </c>
       <c r="D86" s="1">
-        <v>42341</v>
+        <v>42412</v>
       </c>
       <c r="E86" s="1">
-        <v>42418</v>
+        <v>42527</v>
       </c>
       <c r="F86" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G86" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H86" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B87" t="s">
         <v>12</v>
       </c>
       <c r="C87" s="1">
-        <v>42226</v>
+        <v>42257</v>
       </c>
       <c r="D87" s="1">
-        <v>42474</v>
+        <v>42412</v>
       </c>
       <c r="E87" s="1">
-        <v>42488</v>
+        <v>42527</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G87" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H87" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B88" t="s">
         <v>12</v>
       </c>
       <c r="C88" s="1">
-        <v>42226</v>
+        <v>42257</v>
       </c>
       <c r="D88" s="1">
-        <v>42474</v>
+        <v>42412</v>
       </c>
       <c r="E88" s="1">
-        <v>42488</v>
+        <v>42527</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G88" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="B89" t="s">
         <v>12</v>
       </c>
       <c r="C89" s="1">
-        <v>42226</v>
+        <v>42257</v>
       </c>
       <c r="D89" s="1">
-        <v>42474</v>
+        <v>42412</v>
       </c>
       <c r="E89" s="1">
-        <v>42488</v>
+        <v>42527</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G89" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B90" t="s">
         <v>12</v>
@@ -3635,119 +4346,134 @@
         <v>42257</v>
       </c>
       <c r="D90" s="1">
-        <v>42474</v>
+        <v>42412</v>
       </c>
       <c r="E90" s="1">
-        <v>42488</v>
+        <v>42527</v>
       </c>
       <c r="F90" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G90" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H90" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="B91" t="s">
         <v>12</v>
       </c>
       <c r="C91" s="1">
-        <v>42216</v>
+        <v>42263</v>
       </c>
       <c r="D91" s="1">
-        <v>42474</v>
+        <v>42453</v>
       </c>
       <c r="E91" s="1">
-        <v>42488</v>
+        <v>42528</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G91" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H91" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B92" t="s">
         <v>12</v>
       </c>
       <c r="C92" s="1">
-        <v>42216</v>
+        <v>42263</v>
       </c>
       <c r="D92" s="1">
-        <v>42474</v>
+        <v>42412</v>
       </c>
       <c r="E92" s="1">
-        <v>42488</v>
+        <v>42569</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G92" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B93" t="s">
         <v>12</v>
       </c>
       <c r="C93" s="1">
-        <v>42216</v>
+        <v>42263</v>
       </c>
       <c r="D93" s="1">
-        <v>42474</v>
+        <v>42412</v>
       </c>
       <c r="E93" s="1">
-        <v>42488</v>
+        <v>42569</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G93" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B94" t="s">
         <v>12</v>
       </c>
       <c r="C94" s="1">
-        <v>42216</v>
+        <v>42263</v>
       </c>
       <c r="D94" s="1">
-        <v>42474</v>
+        <v>42412</v>
       </c>
       <c r="E94" s="1">
-        <v>42488</v>
+        <v>42569</v>
       </c>
       <c r="F94" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G94" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
+        <v>42674</v>
+      </c>
+      <c r="H94" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B95" t="s">
         <v>12</v>
       </c>
       <c r="C95" s="1">
-        <v>42216</v>
+        <v>42226</v>
       </c>
       <c r="D95" s="1">
         <v>42474</v>
@@ -3761,16 +4487,19 @@
       <c r="G95" s="1">
         <v>42667</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B96" t="s">
         <v>12</v>
       </c>
       <c r="C96" s="1">
-        <v>42216</v>
+        <v>42226</v>
       </c>
       <c r="D96" s="1">
         <v>42474</v>
@@ -3784,16 +4513,19 @@
       <c r="G96" s="1">
         <v>42667</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B97" t="s">
         <v>12</v>
       </c>
       <c r="C97" s="1">
-        <v>42255</v>
+        <v>42226</v>
       </c>
       <c r="D97" s="1">
         <v>42474</v>
@@ -3807,8 +4539,11 @@
       <c r="G97" s="1">
         <v>42667</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>64</v>
       </c>
@@ -3830,45 +4565,51 @@
       <c r="G98" s="1">
         <v>42667</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B99" t="s">
         <v>12</v>
       </c>
       <c r="C99" s="1">
-        <v>42216</v>
+        <v>42227</v>
       </c>
       <c r="D99" s="1">
+        <v>42476</v>
+      </c>
+      <c r="E99" s="1">
+        <v>42513</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G99" s="1">
+        <v>42674</v>
+      </c>
+      <c r="H99" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>67</v>
+      </c>
+      <c r="B100" t="s">
+        <v>12</v>
+      </c>
+      <c r="C100" s="1">
+        <v>42227</v>
+      </c>
+      <c r="D100" s="1">
         <v>42474</v>
       </c>
-      <c r="E99" s="1">
-        <v>42488</v>
-      </c>
-      <c r="F99" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G99" s="1">
-        <v>42667</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>66</v>
-      </c>
-      <c r="B100" t="s">
-        <v>12</v>
-      </c>
-      <c r="C100" s="1">
-        <v>42257</v>
-      </c>
-      <c r="D100" s="1">
-        <v>42412</v>
-      </c>
       <c r="E100" s="1">
-        <v>42527</v>
+        <v>42513</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>80</v>
@@ -3876,45 +4617,51 @@
       <c r="G100" s="1">
         <v>42674</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B101" t="s">
         <v>12</v>
       </c>
       <c r="C101" s="1">
-        <v>42257</v>
+        <v>42216</v>
       </c>
       <c r="D101" s="1">
-        <v>42412</v>
+        <v>42474</v>
       </c>
       <c r="E101" s="1">
-        <v>42527</v>
+        <v>42488</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G101" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H101" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B102" t="s">
         <v>12</v>
       </c>
       <c r="C102" s="1">
-        <v>42257</v>
+        <v>42216</v>
       </c>
       <c r="D102" s="1">
-        <v>42412</v>
+        <v>42474</v>
       </c>
       <c r="E102" s="1">
-        <v>42527</v>
+        <v>42488</v>
       </c>
       <c r="F102" s="1" t="s">
         <v>80</v>
@@ -3922,56 +4669,65 @@
       <c r="G102" s="1">
         <v>42674</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B103" t="s">
         <v>12</v>
       </c>
       <c r="C103" s="1">
-        <v>42257</v>
+        <v>42216</v>
       </c>
       <c r="D103" s="1">
-        <v>42412</v>
+        <v>42474</v>
       </c>
       <c r="E103" s="1">
-        <v>42527</v>
+        <v>42488</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G103" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H103" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B104" t="s">
         <v>12</v>
       </c>
       <c r="C104" s="1">
-        <v>42257</v>
+        <v>42216</v>
       </c>
       <c r="D104" s="1">
-        <v>42412</v>
+        <v>42474</v>
       </c>
       <c r="E104" s="1">
-        <v>42527</v>
+        <v>42488</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G104" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H104" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B105" t="s">
         <v>12</v>
@@ -3989,90 +4745,102 @@
         <v>80</v>
       </c>
       <c r="G105" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="106" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H105" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B106" t="s">
         <v>12</v>
       </c>
       <c r="C106" s="1">
-        <v>42227</v>
+        <v>42216</v>
       </c>
       <c r="D106" s="1">
         <v>42474</v>
       </c>
       <c r="E106" s="1">
-        <v>42513</v>
+        <v>42488</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G106" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="107" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H106" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B107" t="s">
         <v>12</v>
       </c>
       <c r="C107" s="1">
-        <v>42263</v>
+        <v>42216</v>
       </c>
       <c r="D107" s="1">
-        <v>42412</v>
+        <v>42474</v>
       </c>
       <c r="E107" s="1">
-        <v>42569</v>
+        <v>42488</v>
       </c>
       <c r="F107" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G107" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H107" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B108" t="s">
         <v>12</v>
       </c>
       <c r="C108" s="1">
-        <v>42316</v>
+        <v>42216</v>
       </c>
       <c r="D108" s="1">
         <v>42474</v>
       </c>
       <c r="E108" s="1">
-        <v>42513</v>
+        <v>42488</v>
       </c>
       <c r="F108" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G108" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="109" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H108" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B109" t="s">
         <v>12</v>
       </c>
       <c r="C109" s="1">
-        <v>42227</v>
+        <v>42216</v>
       </c>
       <c r="D109" s="1">
-        <v>42476</v>
+        <v>42474</v>
       </c>
       <c r="E109" s="1">
         <v>42513</v>
@@ -4083,68 +4851,77 @@
       <c r="G109" s="1">
         <v>42674</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B110" t="s">
         <v>12</v>
       </c>
       <c r="C110" s="1">
-        <v>42316</v>
+        <v>42257</v>
       </c>
       <c r="D110" s="1">
         <v>42474</v>
       </c>
       <c r="E110" s="1">
-        <v>42513</v>
+        <v>42488</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G110" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="111" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H110" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B111" t="s">
         <v>12</v>
       </c>
       <c r="C111" s="1">
-        <v>42316</v>
+        <v>42255</v>
       </c>
       <c r="D111" s="1">
         <v>42474</v>
       </c>
       <c r="E111" s="1">
-        <v>42513</v>
+        <v>42488</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G111" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="112" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H111" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B112" t="s">
         <v>12</v>
       </c>
       <c r="C112" s="1">
-        <v>42216</v>
+        <v>42255</v>
       </c>
       <c r="D112" s="1">
         <v>42474</v>
       </c>
       <c r="E112" s="1">
-        <v>42513</v>
+        <v>42488</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>80</v>
@@ -4152,355 +4929,403 @@
       <c r="G112" s="1">
         <v>42674</v>
       </c>
-    </row>
-    <row r="113" spans="1:7">
+      <c r="H112" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B113" t="s">
-        <v>12</v>
-      </c>
-      <c r="C113" s="1">
-        <v>42257</v>
+        <v>13</v>
+      </c>
+      <c r="C113" t="s">
+        <v>59</v>
       </c>
       <c r="D113" s="1">
-        <v>42412</v>
+        <v>41967</v>
       </c>
       <c r="E113" s="1">
-        <v>42527</v>
-      </c>
-      <c r="F113" s="1" t="s">
-        <v>80</v>
+        <v>42065</v>
+      </c>
+      <c r="F113" s="1">
+        <v>42185</v>
       </c>
       <c r="G113" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H113" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
-      </c>
-      <c r="C114" s="1">
-        <v>42263</v>
+        <v>13</v>
+      </c>
+      <c r="C114" t="s">
+        <v>59</v>
       </c>
       <c r="D114" s="1">
-        <v>42412</v>
+        <v>41967</v>
       </c>
       <c r="E114" s="1">
-        <v>42569</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>80</v>
+        <v>42065</v>
+      </c>
+      <c r="F114" s="1">
+        <v>42185</v>
       </c>
       <c r="G114" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H114" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B115" t="s">
-        <v>12</v>
-      </c>
-      <c r="C115" s="1">
-        <v>42257</v>
+        <v>13</v>
+      </c>
+      <c r="C115" t="s">
+        <v>59</v>
       </c>
       <c r="D115" s="1">
-        <v>42412</v>
+        <v>41967</v>
       </c>
       <c r="E115" s="1">
-        <v>42527</v>
-      </c>
-      <c r="F115" s="1" t="s">
-        <v>80</v>
+        <v>42065</v>
+      </c>
+      <c r="F115" s="1">
+        <v>42185</v>
       </c>
       <c r="G115" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="116" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H115" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>63</v>
+        <v>49</v>
       </c>
       <c r="B116" t="s">
-        <v>12</v>
-      </c>
-      <c r="C116" s="1">
-        <v>42255</v>
+        <v>13</v>
+      </c>
+      <c r="C116" t="s">
+        <v>59</v>
       </c>
       <c r="D116" s="1">
-        <v>42474</v>
+        <v>41967</v>
       </c>
       <c r="E116" s="1">
-        <v>42488</v>
-      </c>
-      <c r="F116" s="1" t="s">
-        <v>80</v>
+        <v>42065</v>
+      </c>
+      <c r="F116" s="1">
+        <v>42185</v>
       </c>
       <c r="G116" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="117" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H116" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
-      </c>
-      <c r="C117" s="1">
-        <v>42316</v>
+        <v>13</v>
+      </c>
+      <c r="C117" t="s">
+        <v>59</v>
       </c>
       <c r="D117" s="1">
-        <v>42474</v>
+        <v>41967</v>
       </c>
       <c r="E117" s="1">
-        <v>42513</v>
-      </c>
-      <c r="F117" s="1" t="s">
-        <v>80</v>
+        <v>42065</v>
+      </c>
+      <c r="F117" s="1">
+        <v>42185</v>
       </c>
       <c r="G117" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H117" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
       <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="1">
-        <v>42257</v>
+        <v>13</v>
+      </c>
+      <c r="C118" t="s">
+        <v>59</v>
       </c>
       <c r="D118" s="1">
-        <v>42412</v>
+        <v>41967</v>
       </c>
       <c r="E118" s="1">
-        <v>42527</v>
-      </c>
-      <c r="F118" s="1" t="s">
-        <v>80</v>
+        <v>42065</v>
+      </c>
+      <c r="F118" s="1">
+        <v>42185</v>
       </c>
       <c r="G118" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="119" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H118" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
       <c r="B119" t="s">
-        <v>12</v>
-      </c>
-      <c r="C119" s="1">
-        <v>42316</v>
+        <v>13</v>
+      </c>
+      <c r="C119" t="s">
+        <v>59</v>
       </c>
       <c r="D119" s="1">
-        <v>42474</v>
+        <v>41967</v>
       </c>
       <c r="E119" s="1">
-        <v>42513</v>
-      </c>
-      <c r="F119" s="1" t="s">
-        <v>80</v>
+        <v>42065</v>
+      </c>
+      <c r="F119" s="1">
+        <v>42185</v>
       </c>
       <c r="G119" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H119" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B120" t="s">
         <v>12</v>
       </c>
       <c r="C120" s="1">
-        <v>42263</v>
+        <v>42251</v>
       </c>
       <c r="D120" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E120" s="1">
-        <v>42569</v>
+        <v>42418</v>
       </c>
       <c r="F120" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G120" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="121" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H120" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B121" t="s">
         <v>12</v>
       </c>
       <c r="C121" s="1">
-        <v>42316</v>
+        <v>42256</v>
       </c>
       <c r="D121" s="1">
-        <v>42474</v>
+        <v>42341</v>
       </c>
       <c r="E121" s="1">
-        <v>42513</v>
+        <v>42418</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G121" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H121" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B122" t="s">
         <v>12</v>
       </c>
       <c r="C122" s="1">
-        <v>42257</v>
+        <v>42256</v>
       </c>
       <c r="D122" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E122" s="1">
-        <v>42527</v>
+        <v>42418</v>
       </c>
       <c r="F122" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G122" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H122" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B123" t="s">
         <v>12</v>
       </c>
       <c r="C123" s="1">
-        <v>42316</v>
+        <v>42256</v>
       </c>
       <c r="D123" s="1">
-        <v>42474</v>
+        <v>42341</v>
       </c>
       <c r="E123" s="1">
-        <v>42513</v>
+        <v>42418</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G123" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H123" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="B124" t="s">
         <v>12</v>
       </c>
       <c r="C124" s="1">
-        <v>42257</v>
+        <v>42256</v>
       </c>
       <c r="D124" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E124" s="1">
-        <v>42527</v>
+        <v>42418</v>
       </c>
       <c r="F124" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G124" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="125" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H124" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B125" t="s">
         <v>12</v>
       </c>
       <c r="C125" s="1">
-        <v>42316</v>
+        <v>42256</v>
       </c>
       <c r="D125" s="1">
-        <v>42474</v>
+        <v>42341</v>
       </c>
       <c r="E125" s="1">
-        <v>42513</v>
+        <v>42418</v>
       </c>
       <c r="F125" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G125" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="126" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H125" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B126" t="s">
-        <v>12</v>
-      </c>
-      <c r="C126" s="1">
-        <v>42316</v>
+        <v>13</v>
+      </c>
+      <c r="C126" t="s">
+        <v>59</v>
       </c>
       <c r="D126" s="1">
-        <v>42474</v>
+        <v>41967</v>
       </c>
       <c r="E126" s="1">
-        <v>42513</v>
-      </c>
-      <c r="F126" s="1" t="s">
-        <v>80</v>
+        <v>42065</v>
+      </c>
+      <c r="F126" s="1">
+        <v>42185</v>
       </c>
       <c r="G126" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H126" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>71</v>
+        <v>50</v>
       </c>
       <c r="B127" t="s">
-        <v>12</v>
-      </c>
-      <c r="C127" s="1">
-        <v>42257</v>
+        <v>13</v>
+      </c>
+      <c r="C127" t="s">
+        <v>59</v>
       </c>
       <c r="D127" s="1">
-        <v>42412</v>
+        <v>41967</v>
       </c>
       <c r="E127" s="1">
-        <v>42527</v>
-      </c>
-      <c r="F127" s="1" t="s">
-        <v>80</v>
+        <v>42065</v>
+      </c>
+      <c r="F127" s="1">
+        <v>42185</v>
       </c>
       <c r="G127" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H127" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B128" t="s">
         <v>12</v>
@@ -4509,441 +5334,498 @@
         <v>42263</v>
       </c>
       <c r="D128" s="1">
-        <v>42453</v>
+        <v>42341</v>
       </c>
       <c r="E128" s="1">
-        <v>42528</v>
+        <v>42418</v>
       </c>
       <c r="F128" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G128" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="129" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H128" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B129" t="s">
         <v>12</v>
       </c>
       <c r="C129" s="1">
-        <v>42256</v>
+        <v>42263</v>
       </c>
       <c r="D129" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E129" s="1">
-        <v>42488</v>
+        <v>42418</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G129" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H129" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="B130" t="s">
         <v>12</v>
       </c>
       <c r="C130" s="1">
-        <v>42317</v>
+        <v>42263</v>
       </c>
       <c r="D130" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E130" s="1">
-        <v>42488</v>
+        <v>42418</v>
       </c>
       <c r="F130" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G130" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H130" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="B131" t="s">
         <v>12</v>
       </c>
       <c r="C131" s="1">
-        <v>42256</v>
+        <v>42263</v>
       </c>
       <c r="D131" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E131" s="1">
-        <v>42454</v>
+        <v>42418</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G131" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H131" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="B132" t="s">
         <v>12</v>
       </c>
       <c r="C132" s="1">
-        <v>42256</v>
+        <v>42263</v>
       </c>
       <c r="D132" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E132" s="1">
-        <v>42454</v>
+        <v>42418</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G132" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H132" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B133" t="s">
         <v>12</v>
       </c>
       <c r="C133" s="1">
-        <v>42256</v>
+        <v>42263</v>
       </c>
       <c r="D133" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E133" s="1">
-        <v>42454</v>
+        <v>42418</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G133" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="134" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H133" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B134" t="s">
         <v>12</v>
       </c>
       <c r="C134" s="1">
-        <v>42256</v>
+        <v>42263</v>
       </c>
       <c r="D134" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E134" s="1">
-        <v>42454</v>
+        <v>42418</v>
       </c>
       <c r="F134" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G134" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H134" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="B135" t="s">
         <v>12</v>
       </c>
       <c r="C135" s="1">
-        <v>42256</v>
+        <v>42263</v>
       </c>
       <c r="D135" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E135" s="1">
-        <v>42454</v>
+        <v>42418</v>
       </c>
       <c r="F135" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G135" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H135" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B136" t="s">
         <v>12</v>
       </c>
       <c r="C136" s="1">
-        <v>42256</v>
+        <v>42263</v>
       </c>
       <c r="D136" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E136" s="1">
-        <v>42454</v>
+        <v>42418</v>
       </c>
       <c r="F136" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G136" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H136" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="B137" t="s">
         <v>12</v>
       </c>
       <c r="C137" s="1">
-        <v>42256</v>
+        <v>42263</v>
       </c>
       <c r="D137" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E137" s="1">
-        <v>42488</v>
+        <v>42418</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G137" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H137" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>76</v>
+        <v>55</v>
       </c>
       <c r="B138" t="s">
         <v>12</v>
       </c>
       <c r="C138" s="1">
-        <v>42256</v>
+        <v>42255</v>
       </c>
       <c r="D138" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E138" s="1">
-        <v>42488</v>
+        <v>42418</v>
       </c>
       <c r="F138" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G138" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H138" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="B139" t="s">
         <v>12</v>
       </c>
       <c r="C139" s="1">
-        <v>42317</v>
+        <v>42255</v>
       </c>
       <c r="D139" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E139" s="1">
-        <v>42488</v>
+        <v>42418</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G139" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H139" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B140" t="s">
         <v>12</v>
       </c>
-      <c r="C140" s="1">
-        <v>42317</v>
+      <c r="C140" t="s">
+        <v>59</v>
       </c>
       <c r="D140" s="1">
-        <v>42453</v>
+        <v>42341</v>
       </c>
       <c r="E140" s="1">
-        <v>42474</v>
+        <v>42418</v>
       </c>
       <c r="F140" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G140" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7">
+        <v>42678</v>
+      </c>
+      <c r="H140" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B141" t="s">
         <v>12</v>
       </c>
-      <c r="C141" s="1">
-        <v>42256</v>
+      <c r="C141" t="s">
+        <v>59</v>
       </c>
       <c r="D141" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E141" s="1">
-        <v>42488</v>
+        <v>42418</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G141" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7">
+        <v>42678</v>
+      </c>
+      <c r="H141" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B142" t="s">
         <v>12</v>
       </c>
       <c r="C142" s="1">
-        <v>42256</v>
+        <v>42257</v>
       </c>
       <c r="D142" s="1">
-        <v>42453</v>
+        <v>42341</v>
       </c>
       <c r="E142" s="1">
-        <v>42474</v>
+        <v>42418</v>
       </c>
       <c r="F142" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G142" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H142" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B143" t="s">
         <v>12</v>
       </c>
       <c r="C143" s="1">
-        <v>42256</v>
+        <v>42257</v>
       </c>
       <c r="D143" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E143" s="1">
-        <v>42454</v>
+        <v>42418</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G143" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="144" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H143" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="B144" t="s">
         <v>12</v>
       </c>
       <c r="C144" s="1">
-        <v>42256</v>
+        <v>42257</v>
       </c>
       <c r="D144" s="1">
-        <v>42412</v>
+        <v>42341</v>
       </c>
       <c r="E144" s="1">
-        <v>42454</v>
+        <v>42418</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G144" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="145" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H144" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B145" t="s">
         <v>12</v>
       </c>
       <c r="C145" s="1">
-        <v>42248</v>
+        <v>42257</v>
       </c>
       <c r="D145" s="1">
-        <v>42453</v>
+        <v>42341</v>
       </c>
       <c r="E145" s="1">
-        <v>42488</v>
+        <v>42418</v>
       </c>
       <c r="F145" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G145" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="146" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H145" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>77</v>
+        <v>51</v>
       </c>
       <c r="B146" t="s">
         <v>12</v>
       </c>
       <c r="C146" s="1">
-        <v>42248</v>
+        <v>42257</v>
       </c>
       <c r="D146" s="1">
-        <v>42474</v>
+        <v>42341</v>
       </c>
       <c r="E146" s="1">
-        <v>42488</v>
+        <v>42418</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>80</v>
       </c>
       <c r="G146" s="1">
-        <v>42674</v>
-      </c>
-    </row>
-    <row r="147" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H146" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B147" t="s">
         <v>12</v>
       </c>
-      <c r="C147" t="s">
-        <v>59</v>
+      <c r="C147" s="1">
+        <v>42257</v>
       </c>
       <c r="D147" s="1">
         <v>42341</v>
@@ -4955,18 +5837,21 @@
         <v>80</v>
       </c>
       <c r="G147" s="1">
-        <v>42678</v>
-      </c>
-    </row>
-    <row r="148" spans="1:7">
+        <v>42667</v>
+      </c>
+      <c r="H147" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>81</v>
+        <v>56</v>
       </c>
       <c r="B148" t="s">
         <v>12</v>
       </c>
-      <c r="C148" t="s">
-        <v>59</v>
+      <c r="C148" s="1">
+        <v>42257</v>
       </c>
       <c r="D148" s="1">
         <v>42341</v>
@@ -4978,17 +5863,19 @@
         <v>80</v>
       </c>
       <c r="G148" s="1">
-        <v>42678</v>
+        <v>42667</v>
+      </c>
+      <c r="H148" t="s">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H1"/>
+  <autoFilter ref="A1:H1">
+    <sortState ref="A2:H148">
+      <sortCondition ref="A1:A148"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>